--- a/input/data_timeseries.xlsx
+++ b/input/data_timeseries.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Dates</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t xml:space="preserve">World Low Volatility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Care</t>
   </si>
   <si>
     <t xml:space="preserve">Consumer Staples Global</t>
@@ -429,2915 +432,3175 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45663</v>
+        <v>45701</v>
       </c>
       <c r="B2" t="n">
-        <v>110.01000213623</v>
+        <v>112.860000610352</v>
       </c>
       <c r="C2" t="n">
-        <v>81.8899993896484</v>
+        <v>86.5</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5100002288818</v>
+        <v>14.7740001678467</v>
       </c>
       <c r="E2" t="n">
-        <v>66.3300018310547</v>
+        <v>69.9300003051758</v>
       </c>
       <c r="F2" t="n">
-        <v>47</v>
+        <v>51.7900009155273</v>
       </c>
       <c r="G2" t="n">
-        <v>7.70599985122681</v>
+        <v>49.689998626709</v>
       </c>
       <c r="H2" t="n">
-        <v>124.639999389648</v>
+        <v>7.78499984741211</v>
       </c>
       <c r="I2" t="n">
-        <v>187.720001220703</v>
+        <v>126.069999694824</v>
       </c>
       <c r="J2" t="n">
-        <v>228.789993286133</v>
+        <v>189.639999389648</v>
       </c>
       <c r="K2" t="n">
-        <v>110.431999206543</v>
+        <v>229.610000610352</v>
       </c>
       <c r="L2" t="n">
-        <v>5.00799989700317</v>
+        <v>110.736000061035</v>
       </c>
       <c r="M2" t="n">
-        <v>244.630004882812</v>
+        <v>5.03299999237061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>269.190002441406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45656</v>
+        <v>45688</v>
       </c>
       <c r="B3" t="n">
-        <v>107.949996948242</v>
+        <v>112.5</v>
       </c>
       <c r="C3" t="n">
-        <v>80.2600021362305</v>
+        <v>84.7900009155273</v>
       </c>
       <c r="D3" t="n">
-        <v>14.2620000839233</v>
+        <v>14.8459997177124</v>
       </c>
       <c r="E3" t="n">
-        <v>66.0350036621094</v>
+        <v>68.9499969482422</v>
       </c>
       <c r="F3" t="n">
-        <v>47.0999984741211</v>
+        <v>52.5499992370605</v>
       </c>
       <c r="G3" t="n">
-        <v>7.51000022888184</v>
+        <v>48.3400001525879</v>
       </c>
       <c r="H3" t="n">
-        <v>125.25</v>
+        <v>7.87599992752075</v>
       </c>
       <c r="I3" t="n">
-        <v>188.699996948242</v>
+        <v>125.779998779297</v>
       </c>
       <c r="J3" t="n">
-        <v>228.479995727539</v>
+        <v>188.589996337891</v>
       </c>
       <c r="K3" t="n">
-        <v>110.38500213623</v>
+        <v>229.720001220703</v>
       </c>
       <c r="L3" t="n">
-        <v>5.00699996948242</v>
+        <v>110.646003723145</v>
       </c>
       <c r="M3" t="n">
-        <v>241.369995117188</v>
+        <v>5.02600002288818</v>
+      </c>
+      <c r="N3" t="n">
+        <v>260.179992675781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45625</v>
+        <v>45656</v>
       </c>
       <c r="B4" t="n">
-        <v>110.580001831055</v>
+        <v>107.949996948242</v>
       </c>
       <c r="C4" t="n">
-        <v>82.3050003051758</v>
+        <v>80.2600021362305</v>
       </c>
       <c r="D4" t="n">
-        <v>14.5939998626709</v>
+        <v>14.2620000839233</v>
       </c>
       <c r="E4" t="n">
-        <v>69.6699981689453</v>
+        <v>66.0350036621094</v>
       </c>
       <c r="F4" t="n">
-        <v>49.2949981689453</v>
+        <v>49.0299987792969</v>
       </c>
       <c r="G4" t="n">
-        <v>8.04599952697754</v>
+        <v>47.0999984741211</v>
       </c>
       <c r="H4" t="n">
-        <v>126.081123352051</v>
+        <v>7.51000022888184</v>
       </c>
       <c r="I4" t="n">
-        <v>192.059997558594</v>
+        <v>125.25</v>
       </c>
       <c r="J4" t="n">
-        <v>231.990005493164</v>
+        <v>188.699996948242</v>
       </c>
       <c r="K4" t="n">
-        <v>110.042999267578</v>
+        <v>228.479995727539</v>
       </c>
       <c r="L4" t="n">
-        <v>4.98449993133545</v>
+        <v>110.38500213623</v>
       </c>
       <c r="M4" t="n">
-        <v>243.029998779297</v>
+        <v>5.00699996948242</v>
+      </c>
+      <c r="N4" t="n">
+        <v>241.369995117188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45596</v>
+        <v>45625</v>
       </c>
       <c r="B5" t="n">
-        <v>105.910003662109</v>
+        <v>110.580001831055</v>
       </c>
       <c r="C5" t="n">
-        <v>79.1699981689453</v>
+        <v>82.3050003051758</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5579996109009</v>
+        <v>14.5939998626709</v>
       </c>
       <c r="E5" t="n">
-        <v>67.4300003051758</v>
+        <v>69.6699981689453</v>
       </c>
       <c r="F5" t="n">
-        <v>48.2449989318848</v>
+        <v>51.5099983215332</v>
       </c>
       <c r="G5" t="n">
-        <v>7.57100009918213</v>
+        <v>49.2949981689453</v>
       </c>
       <c r="H5" t="n">
-        <v>123.816902160645</v>
+        <v>8.04599952697754</v>
       </c>
       <c r="I5" t="n">
-        <v>187.160202026367</v>
+        <v>126.081123352051</v>
       </c>
       <c r="J5" t="n">
-        <v>227.929992675781</v>
+        <v>192.059997558594</v>
       </c>
       <c r="K5" t="n">
-        <v>109.791999816895</v>
+        <v>231.990005493164</v>
       </c>
       <c r="L5" t="n">
-        <v>4.96549987792969</v>
+        <v>110.042999267578</v>
       </c>
       <c r="M5" t="n">
-        <v>243.529998779297</v>
+        <v>4.98449993133545</v>
+      </c>
+      <c r="N5" t="n">
+        <v>243.029998779297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B6" t="n">
-        <v>107.419998168945</v>
+        <v>105.910003662109</v>
       </c>
       <c r="C6" t="n">
-        <v>79.5299987792969</v>
+        <v>79.1699981689453</v>
       </c>
       <c r="D6" t="n">
-        <v>13.3140001296997</v>
+        <v>13.5579996109009</v>
       </c>
       <c r="E6" t="n">
-        <v>68.7799987792969</v>
+        <v>67.4300003051758</v>
       </c>
       <c r="F6" t="n">
-        <v>50.4550018310547</v>
+        <v>50.6500015258789</v>
       </c>
       <c r="G6" t="n">
-        <v>7.7519998550415</v>
+        <v>48.2449989318848</v>
       </c>
       <c r="H6" t="n">
-        <v>124.382957458496</v>
+        <v>7.57100009918213</v>
       </c>
       <c r="I6" t="n">
-        <v>190.207229614258</v>
+        <v>123.816902160645</v>
       </c>
       <c r="J6" t="n">
-        <v>229.889999389648</v>
+        <v>187.160202026367</v>
       </c>
       <c r="K6" t="n">
-        <v>109.491996765137</v>
+        <v>227.929992675781</v>
       </c>
       <c r="L6" t="n">
-        <v>4.94799995422363</v>
+        <v>109.791999816895</v>
       </c>
       <c r="M6" t="n">
-        <v>227.860000610352</v>
+        <v>4.96549987792969</v>
+      </c>
+      <c r="N6" t="n">
+        <v>243.529998779297</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45534</v>
+        <v>45565</v>
       </c>
       <c r="B7" t="n">
-        <v>105.169998168945</v>
+        <v>107.419998168945</v>
       </c>
       <c r="C7" t="n">
-        <v>77.8499984741211</v>
+        <v>79.5299987792969</v>
       </c>
       <c r="D7" t="n">
-        <v>13.2040004730225</v>
+        <v>13.3140001296997</v>
       </c>
       <c r="E7" t="n">
-        <v>68.4199981689453</v>
+        <v>68.7799987792969</v>
       </c>
       <c r="F7" t="n">
-        <v>49.8400001525879</v>
+        <v>51.4099998474121</v>
       </c>
       <c r="G7" t="n">
-        <v>7.56899976730347</v>
+        <v>50.4550018310547</v>
       </c>
       <c r="H7" t="n">
-        <v>122.846267700195</v>
+        <v>7.7519998550415</v>
       </c>
       <c r="I7" t="n">
-        <v>187.179931640625</v>
+        <v>124.382957458496</v>
       </c>
       <c r="J7" t="n">
-        <v>226.679992675781</v>
+        <v>190.207229614258</v>
       </c>
       <c r="K7" t="n">
-        <v>109.176002502441</v>
+        <v>229.889999389648</v>
       </c>
       <c r="L7" t="n">
-        <v>4.92696952819824</v>
+        <v>109.491996765137</v>
       </c>
       <c r="M7" t="n">
-        <v>218.330001831055</v>
+        <v>4.94799995422363</v>
+      </c>
+      <c r="N7" t="n">
+        <v>227.860000610352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45504</v>
+        <v>45534</v>
       </c>
       <c r="B8" t="n">
-        <v>103.290000915527</v>
+        <v>105.169998168945</v>
       </c>
       <c r="C8" t="n">
-        <v>76.5800018310547</v>
+        <v>77.8499984741211</v>
       </c>
       <c r="D8" t="n">
-        <v>13.1400003433228</v>
+        <v>13.2040004730225</v>
       </c>
       <c r="E8" t="n">
-        <v>65.6500015258789</v>
+        <v>68.4199981689453</v>
       </c>
       <c r="F8" t="n">
-        <v>47.5099983215332</v>
+        <v>53.2700004577637</v>
       </c>
       <c r="G8" t="n">
-        <v>7.58500003814697</v>
+        <v>49.8400001525879</v>
       </c>
       <c r="H8" t="n">
-        <v>122.609588623047</v>
+        <v>7.56899976730347</v>
       </c>
       <c r="I8" t="n">
-        <v>186.726318359375</v>
+        <v>122.846260070801</v>
       </c>
       <c r="J8" t="n">
-        <v>227.740005493164</v>
+        <v>187.179931640625</v>
       </c>
       <c r="K8" t="n">
-        <v>108.835998535156</v>
+        <v>226.679992675781</v>
       </c>
       <c r="L8" t="n">
-        <v>4.90203762054443</v>
+        <v>109.176002502441</v>
       </c>
       <c r="M8" t="n">
-        <v>215.830001831055</v>
+        <v>4.92696952819824</v>
+      </c>
+      <c r="N8" t="n">
+        <v>218.330001831055</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45471</v>
+        <v>45504</v>
       </c>
       <c r="B9" t="n">
-        <v>102.029998779297</v>
+        <v>103.290000915527</v>
       </c>
       <c r="C9" t="n">
-        <v>78.2399978637695</v>
+        <v>76.5800018310547</v>
       </c>
       <c r="D9" t="n">
-        <v>13.28600025177</v>
+        <v>13.1400003433228</v>
       </c>
       <c r="E9" t="n">
-        <v>62.7700004577637</v>
+        <v>65.6500015258789</v>
       </c>
       <c r="F9" t="n">
-        <v>46.3400001525879</v>
+        <v>52.1800003051758</v>
       </c>
       <c r="G9" t="n">
-        <v>7.08900022506714</v>
+        <v>47.5099983215332</v>
       </c>
       <c r="H9" t="n">
-        <v>120.587951660156</v>
+        <v>7.58500003814697</v>
       </c>
       <c r="I9" t="n">
-        <v>182.032531738281</v>
+        <v>122.609588623047</v>
       </c>
       <c r="J9" t="n">
-        <v>223.679992675781</v>
+        <v>186.726318359375</v>
       </c>
       <c r="K9" t="n">
-        <v>108.512001037598</v>
+        <v>227.740005493164</v>
       </c>
       <c r="L9" t="n">
-        <v>4.87710523605347</v>
+        <v>108.835998535156</v>
       </c>
       <c r="M9" t="n">
-        <v>209.600006103516</v>
+        <v>4.90203762054443</v>
+      </c>
+      <c r="N9" t="n">
+        <v>215.830001831055</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45443</v>
+        <v>45471</v>
       </c>
       <c r="B10" t="n">
-        <v>98.3600006103516</v>
+        <v>102.029998779297</v>
       </c>
       <c r="C10" t="n">
-        <v>74.1999969482422</v>
+        <v>78.2399978637695</v>
       </c>
       <c r="D10" t="n">
-        <v>12.4739999771118</v>
+        <v>13.28600025177</v>
       </c>
       <c r="E10" t="n">
-        <v>61.7599983215332</v>
+        <v>62.7700004577637</v>
       </c>
       <c r="F10" t="n">
-        <v>46.5</v>
+        <v>51.0200004577637</v>
       </c>
       <c r="G10" t="n">
-        <v>7.16699981689453</v>
+        <v>46.3400001525879</v>
       </c>
       <c r="H10" t="n">
-        <v>119.605255126953</v>
+        <v>7.08900022506714</v>
       </c>
       <c r="I10" t="n">
-        <v>181.549331665039</v>
+        <v>120.587959289551</v>
       </c>
       <c r="J10" t="n">
-        <v>225.190002441406</v>
+        <v>182.032531738281</v>
       </c>
       <c r="K10" t="n">
-        <v>108.208999633789</v>
+        <v>223.679992675781</v>
       </c>
       <c r="L10" t="n">
-        <v>4.85888576507568</v>
+        <v>108.512001037598</v>
       </c>
       <c r="M10" t="n">
-        <v>207.309997558594</v>
+        <v>4.87710523605347</v>
+      </c>
+      <c r="N10" t="n">
+        <v>209.600006103516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B11" t="n">
-        <v>95.75</v>
+        <v>98.3600006103516</v>
       </c>
       <c r="C11" t="n">
-        <v>71.4400024414062</v>
+        <v>74.1999969482422</v>
       </c>
       <c r="D11" t="n">
-        <v>12.253999710083</v>
+        <v>12.4739999771118</v>
       </c>
       <c r="E11" t="n">
-        <v>60.9199981689453</v>
+        <v>61.7599983215332</v>
       </c>
       <c r="F11" t="n">
-        <v>45.5099983215332</v>
+        <v>49</v>
       </c>
       <c r="G11" t="n">
-        <v>6.94999980926514</v>
+        <v>46.5</v>
       </c>
       <c r="H11" t="n">
-        <v>119.507331848145</v>
+        <v>7.16699981689453</v>
       </c>
       <c r="I11" t="n">
-        <v>181.960708618164</v>
+        <v>119.605255126953</v>
       </c>
       <c r="J11" t="n">
-        <v>226.089996337891</v>
+        <v>181.549331665039</v>
       </c>
       <c r="K11" t="n">
-        <v>107.849998474121</v>
+        <v>225.190002441406</v>
       </c>
       <c r="L11" t="n">
-        <v>4.83587169647217</v>
+        <v>108.208999633789</v>
       </c>
       <c r="M11" t="n">
-        <v>207.429992675781</v>
+        <v>4.85888576507568</v>
+      </c>
+      <c r="N11" t="n">
+        <v>207.309997558594</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45379</v>
+        <v>45412</v>
       </c>
       <c r="B12" t="n">
-        <v>98.7600021362305</v>
+        <v>95.75</v>
       </c>
       <c r="C12" t="n">
-        <v>74.0400009155273</v>
+        <v>71.4400024414062</v>
       </c>
       <c r="D12" t="n">
-        <v>12.5640001296997</v>
+        <v>12.253999710083</v>
       </c>
       <c r="E12" t="n">
-        <v>63.1100006103516</v>
+        <v>60.9199981689453</v>
       </c>
       <c r="F12" t="n">
-        <v>46.2200012207031</v>
+        <v>48.7099990844727</v>
       </c>
       <c r="G12" t="n">
-        <v>7.31599998474121</v>
+        <v>45.5099983215332</v>
       </c>
       <c r="H12" t="n">
-        <v>120.790145874023</v>
+        <v>6.94999980926514</v>
       </c>
       <c r="I12" t="n">
-        <v>184.947998046875</v>
+        <v>119.507339477539</v>
       </c>
       <c r="J12" t="n">
-        <v>227.330001831055</v>
+        <v>181.960708618164</v>
       </c>
       <c r="K12" t="n">
-        <v>107.52799987793</v>
+        <v>226.089996337891</v>
       </c>
       <c r="L12" t="n">
-        <v>4.81477499008179</v>
+        <v>107.849998474121</v>
       </c>
       <c r="M12" t="n">
-        <v>198.179992675781</v>
+        <v>4.83587169647217</v>
+      </c>
+      <c r="N12" t="n">
+        <v>207.429992675781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45351</v>
+        <v>45379</v>
       </c>
       <c r="B13" t="n">
-        <v>95.3000030517578</v>
+        <v>98.7600021362305</v>
       </c>
       <c r="C13" t="n">
-        <v>70.5</v>
+        <v>74.0400009155273</v>
       </c>
       <c r="D13" t="n">
-        <v>12.2080001831055</v>
+        <v>12.5640001296997</v>
       </c>
       <c r="E13" t="n">
-        <v>61.5900001525879</v>
+        <v>63.1100006103516</v>
       </c>
       <c r="F13" t="n">
-        <v>45.1100006103516</v>
+        <v>50.2799987792969</v>
       </c>
       <c r="G13" t="n">
-        <v>7.00699996948242</v>
+        <v>46.2200012207031</v>
       </c>
       <c r="H13" t="n">
-        <v>119.200653076172</v>
+        <v>7.31599998474121</v>
       </c>
       <c r="I13" t="n">
-        <v>182.875381469727</v>
+        <v>120.790145874023</v>
       </c>
       <c r="J13" t="n">
-        <v>225.309997558594</v>
+        <v>184.947998046875</v>
       </c>
       <c r="K13" t="n">
-        <v>107.134002685547</v>
+        <v>227.330001831055</v>
       </c>
       <c r="L13" t="n">
-        <v>4.79652166366577</v>
+        <v>107.52799987793</v>
       </c>
       <c r="M13" t="n">
-        <v>182.529998779297</v>
+        <v>4.81477499008179</v>
+      </c>
+      <c r="N13" t="n">
+        <v>198.179992675781</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B14" t="n">
-        <v>92.2200012207031</v>
+        <v>95.3000030517578</v>
       </c>
       <c r="C14" t="n">
-        <v>65.0400009155273</v>
+        <v>70.5</v>
       </c>
       <c r="D14" t="n">
-        <v>11.539999961853</v>
+        <v>12.2080001831055</v>
       </c>
       <c r="E14" t="n">
-        <v>61.2700004577637</v>
+        <v>61.5900001525879</v>
       </c>
       <c r="F14" t="n">
-        <v>45.0800018310547</v>
+        <v>49.0250015258789</v>
       </c>
       <c r="G14" t="n">
-        <v>6.86199998855591</v>
+        <v>45.1100006103516</v>
       </c>
       <c r="H14" t="n">
-        <v>120.270767211914</v>
+        <v>7.00699996948242</v>
       </c>
       <c r="I14" t="n">
-        <v>185.541534423828</v>
+        <v>119.200660705566</v>
       </c>
       <c r="J14" t="n">
-        <v>226.470001220703</v>
+        <v>182.875381469727</v>
       </c>
       <c r="K14" t="n">
-        <v>106.809997558594</v>
+        <v>225.309997558594</v>
       </c>
       <c r="L14" t="n">
-        <v>4.77689456939697</v>
+        <v>107.134002685547</v>
       </c>
       <c r="M14" t="n">
-        <v>149.520004272461</v>
+        <v>4.79652166366577</v>
+      </c>
+      <c r="N14" t="n">
+        <v>182.529998779297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45289</v>
+        <v>45322</v>
       </c>
       <c r="B15" t="n">
-        <v>90.9499969482422</v>
+        <v>92.2200012207031</v>
       </c>
       <c r="C15" t="n">
-        <v>61.7799987792969</v>
+        <v>65.0400009155273</v>
       </c>
       <c r="D15" t="n">
-        <v>11.0260000228882</v>
+        <v>11.539999961853</v>
       </c>
       <c r="E15" t="n">
-        <v>59.6500015258789</v>
+        <v>61.2700004577637</v>
       </c>
       <c r="F15" t="n">
-        <v>44.6549987792969</v>
+        <v>47.9049987792969</v>
       </c>
       <c r="G15" t="n">
-        <v>7.04699993133545</v>
+        <v>45.0800018310547</v>
       </c>
       <c r="H15" t="n">
-        <v>120.640441894531</v>
+        <v>6.86199998855591</v>
       </c>
       <c r="I15" t="n">
-        <v>186.534057617188</v>
+        <v>120.27075958252</v>
       </c>
       <c r="J15" t="n">
-        <v>228.119995117188</v>
+        <v>185.541534423828</v>
       </c>
       <c r="K15" t="n">
-        <v>106.452003479004</v>
+        <v>226.470001220703</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75820159912109</v>
+        <v>106.809997558594</v>
       </c>
       <c r="M15" t="n">
+        <v>4.77689456939697</v>
+      </c>
+      <c r="N15" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45260</v>
+        <v>45289</v>
       </c>
       <c r="B16" t="n">
-        <v>86.0899963378906</v>
+        <v>90.9499969482422</v>
       </c>
       <c r="C16" t="n">
-        <v>58.7999992370605</v>
+        <v>61.7799987792969</v>
       </c>
       <c r="D16" t="n">
-        <v>10.5900001525879</v>
+        <v>11.0260000228882</v>
       </c>
       <c r="E16" t="n">
-        <v>58.0699996948242</v>
+        <v>59.6500015258789</v>
       </c>
       <c r="F16" t="n">
-        <v>43.3400001525879</v>
+        <v>45.5849990844727</v>
       </c>
       <c r="G16" t="n">
-        <v>6.37650012969971</v>
+        <v>44.6549987792969</v>
       </c>
       <c r="H16" t="n">
-        <v>117.411247253418</v>
+        <v>7.04699993133545</v>
       </c>
       <c r="I16" t="n">
-        <v>179.382141113281</v>
+        <v>120.64045715332</v>
       </c>
       <c r="J16" t="n">
-        <v>222.729995727539</v>
+        <v>186.534057617188</v>
       </c>
       <c r="K16" t="n">
-        <v>106.108001708984</v>
+        <v>228.119995117188</v>
       </c>
       <c r="L16" t="n">
-        <v>4.73577070236206</v>
+        <v>106.452003479004</v>
       </c>
       <c r="M16" t="n">
+        <v>4.75820207595825</v>
+      </c>
+      <c r="N16" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B17" t="n">
-        <v>78.8499984741211</v>
+        <v>86.0899963378906</v>
       </c>
       <c r="C17" t="n">
-        <v>53.939998626709</v>
+        <v>58.7999992370605</v>
       </c>
       <c r="D17" t="n">
-        <v>10.076000213623</v>
+        <v>10.5900001525879</v>
       </c>
       <c r="E17" t="n">
-        <v>55.0099983215332</v>
+        <v>58.0699996948242</v>
       </c>
       <c r="F17" t="n">
-        <v>41.6399993896484</v>
+        <v>44.1749992370605</v>
       </c>
       <c r="G17" t="n">
-        <v>5.84250020980835</v>
+        <v>43.3400001525879</v>
       </c>
       <c r="H17" t="n">
-        <v>114.540481567383</v>
+        <v>6.37650012969971</v>
       </c>
       <c r="I17" t="n">
-        <v>173.572418212891</v>
+        <v>117.411247253418</v>
       </c>
       <c r="J17" t="n">
-        <v>216.910003662109</v>
+        <v>179.382141113281</v>
       </c>
       <c r="K17" t="n">
-        <v>105.75</v>
+        <v>222.729995727539</v>
       </c>
       <c r="L17" t="n">
-        <v>4.71053552627563</v>
+        <v>106.108001708984</v>
       </c>
       <c r="M17" t="n">
+        <v>4.7357702255249</v>
+      </c>
+      <c r="N17" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45198</v>
+        <v>45230</v>
       </c>
       <c r="B18" t="n">
-        <v>81.7300033569336</v>
+        <v>78.8499984741211</v>
       </c>
       <c r="C18" t="n">
-        <v>55.1800003051758</v>
+        <v>53.939998626709</v>
       </c>
       <c r="D18" t="n">
-        <v>10.3140001296997</v>
+        <v>10.076000213623</v>
       </c>
       <c r="E18" t="n">
-        <v>55.9799995422363</v>
+        <v>55.0099983215332</v>
       </c>
       <c r="F18" t="n">
-        <v>42.5200004577637</v>
+        <v>43.060001373291</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25950002670288</v>
+        <v>41.6399993896484</v>
       </c>
       <c r="H18" t="n">
-        <v>113.902526855469</v>
+        <v>5.84250020980835</v>
       </c>
       <c r="I18" t="n">
-        <v>172.332763671875</v>
+        <v>114.540481567383</v>
       </c>
       <c r="J18" t="n">
-        <v>216.559997558594</v>
+        <v>173.572418212891</v>
       </c>
       <c r="K18" t="n">
-        <v>105.448997497559</v>
+        <v>216.910003662109</v>
       </c>
       <c r="L18" t="n">
-        <v>4.68950605392456</v>
+        <v>105.75</v>
       </c>
       <c r="M18" t="n">
+        <v>4.71053552627563</v>
+      </c>
+      <c r="N18" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45169</v>
+        <v>45198</v>
       </c>
       <c r="B19" t="n">
-        <v>85.1600036621094</v>
+        <v>81.7300033569336</v>
       </c>
       <c r="C19" t="n">
-        <v>57.4749984741211</v>
+        <v>55.1800003051758</v>
       </c>
       <c r="D19" t="n">
-        <v>10.5699996948242</v>
+        <v>10.3140001296997</v>
       </c>
       <c r="E19" t="n">
-        <v>57.5</v>
+        <v>55.9799995422363</v>
       </c>
       <c r="F19" t="n">
-        <v>44.7249984741211</v>
+        <v>45.2599983215332</v>
       </c>
       <c r="G19" t="n">
-        <v>6.59299993515015</v>
+        <v>42.5200004577637</v>
       </c>
       <c r="H19" t="n">
-        <v>115.059913635254</v>
+        <v>6.25950002670288</v>
       </c>
       <c r="I19" t="n">
-        <v>177.8583984375</v>
+        <v>113.902526855469</v>
       </c>
       <c r="J19" t="n">
-        <v>224.259994506836</v>
+        <v>172.332763671875</v>
       </c>
       <c r="K19" t="n">
-        <v>105.107002258301</v>
+        <v>216.559997558594</v>
       </c>
       <c r="L19" t="n">
-        <v>4.67031574249268</v>
+        <v>105.448997497559</v>
       </c>
       <c r="M19" t="n">
+        <v>4.68950653076172</v>
+      </c>
+      <c r="N19" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B20" t="n">
-        <v>87.1100006103516</v>
+        <v>85.1600036621094</v>
       </c>
       <c r="C20" t="n">
-        <v>58.1100006103516</v>
+        <v>57.4749984741211</v>
       </c>
       <c r="D20" t="n">
-        <v>10.4079999923706</v>
+        <v>10.5699996948242</v>
       </c>
       <c r="E20" t="n">
-        <v>58.25</v>
+        <v>57.5</v>
       </c>
       <c r="F20" t="n">
-        <v>46.1699981689453</v>
+        <v>45.6749992370605</v>
       </c>
       <c r="G20" t="n">
-        <v>6.82350015640259</v>
+        <v>44.7249984741211</v>
       </c>
       <c r="H20" t="n">
-        <v>115.136734008789</v>
+        <v>6.59299993515015</v>
       </c>
       <c r="I20" t="n">
-        <v>177.060775756836</v>
+        <v>115.059906005859</v>
       </c>
       <c r="J20" t="n">
-        <v>224.850006103516</v>
+        <v>177.8583984375</v>
       </c>
       <c r="K20" t="n">
-        <v>104.769996643066</v>
+        <v>224.259994506836</v>
       </c>
       <c r="L20" t="n">
-        <v>4.64933156967163</v>
+        <v>105.107002258301</v>
       </c>
       <c r="M20" t="n">
+        <v>4.67031574249268</v>
+      </c>
+      <c r="N20" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B21" t="n">
-        <v>84.2600021362305</v>
+        <v>87.1100006103516</v>
       </c>
       <c r="C21" t="n">
-        <v>56.7400016784668</v>
+        <v>58.1100006103516</v>
       </c>
       <c r="D21" t="n">
-        <v>10.1180000305176</v>
+        <v>10.4079999923706</v>
       </c>
       <c r="E21" t="n">
-        <v>57.4000015258789</v>
+        <v>58.25</v>
       </c>
       <c r="F21" t="n">
-        <v>45.2900009155273</v>
+        <v>44.9799995422363</v>
       </c>
       <c r="G21" t="n">
-        <v>6.5149998664856</v>
+        <v>46.1699981689453</v>
       </c>
       <c r="H21" t="n">
-        <v>114.147651672363</v>
+        <v>6.82350015640259</v>
       </c>
       <c r="I21" t="n">
-        <v>177.473999023438</v>
+        <v>115.136741638184</v>
       </c>
       <c r="J21" t="n">
-        <v>223.690002441406</v>
+        <v>177.060775756836</v>
       </c>
       <c r="K21" t="n">
-        <v>104.50700378418</v>
+        <v>224.850006103516</v>
       </c>
       <c r="L21" t="n">
-        <v>4.62834739685059</v>
+        <v>104.769996643066</v>
       </c>
       <c r="M21" t="n">
+        <v>4.64933156967163</v>
+      </c>
+      <c r="N21" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B22" t="n">
-        <v>79.25</v>
+        <v>84.2600021362305</v>
       </c>
       <c r="C22" t="n">
-        <v>53.2700004577637</v>
+        <v>56.7400016784668</v>
       </c>
       <c r="D22" t="n">
-        <v>9.72799968719482</v>
+        <v>10.1180000305176</v>
       </c>
       <c r="E22" t="n">
-        <v>55.689998626709</v>
+        <v>57.4000015258789</v>
       </c>
       <c r="F22" t="n">
-        <v>43.9199981689453</v>
+        <v>44.8699989318848</v>
       </c>
       <c r="G22" t="n">
-        <v>6.08650016784668</v>
+        <v>45.2900009155273</v>
       </c>
       <c r="H22" t="n">
-        <v>114.544448852539</v>
+        <v>6.5149998664856</v>
       </c>
       <c r="I22" t="n">
-        <v>178.290832519531</v>
+        <v>114.147651672363</v>
       </c>
       <c r="J22" t="n">
-        <v>224.630004882812</v>
+        <v>177.473999023438</v>
       </c>
       <c r="K22" t="n">
-        <v>104.200996398926</v>
+        <v>223.690002441406</v>
       </c>
       <c r="L22" t="n">
-        <v>4.61010122299194</v>
+        <v>104.50700378418</v>
       </c>
       <c r="M22" t="n">
+        <v>4.62834787368774</v>
+      </c>
+      <c r="N22" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45044</v>
+        <v>45077</v>
       </c>
       <c r="B23" t="n">
-        <v>80.120002746582</v>
+        <v>79.25</v>
       </c>
       <c r="C23" t="n">
-        <v>56.0349998474121</v>
+        <v>53.2700004577637</v>
       </c>
       <c r="D23" t="n">
-        <v>9.3100004196167</v>
+        <v>9.72799968719482</v>
       </c>
       <c r="E23" t="n">
-        <v>58.1199989318848</v>
+        <v>55.689998626709</v>
       </c>
       <c r="F23" t="n">
-        <v>47.0050010681152</v>
+        <v>44.2449989318848</v>
       </c>
       <c r="G23" t="n">
-        <v>6.30000019073486</v>
+        <v>43.9199981689453</v>
       </c>
       <c r="H23" t="n">
-        <v>114.38215637207</v>
+        <v>6.08650016784668</v>
       </c>
       <c r="I23" t="n">
-        <v>177.097808837891</v>
+        <v>114.544456481934</v>
       </c>
       <c r="J23" t="n">
-        <v>222.740005493164</v>
+        <v>178.290832519531</v>
       </c>
       <c r="K23" t="n">
-        <v>103.944000244141</v>
+        <v>224.630004882812</v>
       </c>
       <c r="L23" t="n">
-        <v>4.59550333023071</v>
+        <v>104.200996398926</v>
       </c>
       <c r="M23" t="n">
+        <v>4.61010074615479</v>
+      </c>
+      <c r="N23" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="B24" t="n">
-        <v>78.629997253418</v>
+        <v>80.120002746582</v>
       </c>
       <c r="C24" t="n">
-        <v>54.5</v>
+        <v>56.0349998474121</v>
       </c>
       <c r="D24" t="n">
-        <v>9.28400039672852</v>
+        <v>9.3100004196167</v>
       </c>
       <c r="E24" t="n">
-        <v>56.5400009155273</v>
+        <v>58.1199989318848</v>
       </c>
       <c r="F24" t="n">
-        <v>45.1599998474121</v>
+        <v>44.7799987792969</v>
       </c>
       <c r="G24" t="n">
-        <v>6.30200004577637</v>
+        <v>47.0050010681152</v>
       </c>
       <c r="H24" t="n">
-        <v>113.914413452148</v>
+        <v>6.30000019073486</v>
       </c>
       <c r="I24" t="n">
-        <v>177.307479858398</v>
+        <v>114.382164001465</v>
       </c>
       <c r="J24" t="n">
-        <v>222.470001220703</v>
+        <v>177.097808837891</v>
       </c>
       <c r="K24" t="n">
-        <v>103.710998535156</v>
+        <v>222.740005493164</v>
       </c>
       <c r="L24" t="n">
-        <v>4.58364248275757</v>
+        <v>103.944000244141</v>
       </c>
       <c r="M24" t="n">
+        <v>4.59550333023071</v>
+      </c>
+      <c r="N24" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B25" t="n">
-        <v>76.6600036621094</v>
+        <v>78.629997253418</v>
       </c>
       <c r="C25" t="n">
-        <v>54.1399993896484</v>
+        <v>54.5</v>
       </c>
       <c r="D25" t="n">
-        <v>9.17899990081787</v>
+        <v>9.28400039672852</v>
       </c>
       <c r="E25" t="n">
-        <v>54.5999984741211</v>
+        <v>56.5400009155273</v>
       </c>
       <c r="F25" t="n">
-        <v>43.1599998474121</v>
+        <v>43.9199981689453</v>
       </c>
       <c r="G25" t="n">
-        <v>6.48950004577637</v>
+        <v>45.1599998474121</v>
       </c>
       <c r="H25" t="n">
-        <v>112.06477355957</v>
+        <v>6.30200004577637</v>
       </c>
       <c r="I25" t="n">
-        <v>172.198532104492</v>
+        <v>113.914413452148</v>
       </c>
       <c r="J25" t="n">
-        <v>219.419998168945</v>
+        <v>177.307495117188</v>
       </c>
       <c r="K25" t="n">
-        <v>103.47200012207</v>
+        <v>222.470001220703</v>
       </c>
       <c r="L25" t="n">
-        <v>4.558518409729</v>
+        <v>103.710998535156</v>
       </c>
       <c r="M25" t="n">
+        <v>4.58364248275757</v>
+      </c>
+      <c r="N25" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B26" t="n">
-        <v>77.9899978637695</v>
+        <v>76.6600036621094</v>
       </c>
       <c r="C26" t="n">
-        <v>55.6100006103516</v>
+        <v>54.1399993896484</v>
       </c>
       <c r="D26" t="n">
-        <v>9.10900020599365</v>
+        <v>9.17899990081787</v>
       </c>
       <c r="E26" t="n">
-        <v>56.2000007629395</v>
+        <v>54.5999984741211</v>
       </c>
       <c r="F26" t="n">
-        <v>43.8800010681152</v>
+        <v>43.7550010681152</v>
       </c>
       <c r="G26" t="n">
-        <v>6.56199979782104</v>
+        <v>43.1599998474121</v>
       </c>
       <c r="H26" t="n">
-        <v>114.144958496094</v>
+        <v>6.48950004577637</v>
       </c>
       <c r="I26" t="n">
-        <v>176.449645996094</v>
+        <v>112.064765930176</v>
       </c>
       <c r="J26" t="n">
-        <v>219.820007324219</v>
+        <v>172.198547363281</v>
       </c>
       <c r="K26" t="n">
-        <v>103.297996520996</v>
+        <v>219.419998168945</v>
       </c>
       <c r="L26" t="n">
-        <v>4.54325437545776</v>
+        <v>103.47200012207</v>
       </c>
       <c r="M26" t="n">
+        <v>4.55851793289185</v>
+      </c>
+      <c r="N26" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44925</v>
+        <v>44957</v>
       </c>
       <c r="B27" t="n">
-        <v>73.1900024414062</v>
+        <v>77.9899978637695</v>
       </c>
       <c r="C27" t="n">
-        <v>55.1800003051758</v>
+        <v>55.6100006103516</v>
       </c>
       <c r="D27" t="n">
-        <v>8.71199989318848</v>
+        <v>9.10900020599365</v>
       </c>
       <c r="E27" t="n">
-        <v>55.5999984741211</v>
+        <v>56.2000007629395</v>
       </c>
       <c r="F27" t="n">
-        <v>43.7949981689453</v>
+        <v>44.189998626709</v>
       </c>
       <c r="G27" t="n">
-        <v>6.01999998092651</v>
+        <v>43.8800010681152</v>
       </c>
       <c r="H27" t="n">
-        <v>112.150253295898</v>
+        <v>6.56199979782104</v>
       </c>
       <c r="I27" t="n">
-        <v>171.073791503906</v>
+        <v>114.144966125488</v>
       </c>
       <c r="J27" t="n">
-        <v>215.889999389648</v>
+        <v>176.449645996094</v>
       </c>
       <c r="K27" t="n">
-        <v>103.151000976562</v>
+        <v>219.820007324219</v>
       </c>
       <c r="L27" t="n">
-        <v>4.53337717056274</v>
+        <v>103.297996520996</v>
       </c>
       <c r="M27" t="n">
+        <v>4.54325389862061</v>
+      </c>
+      <c r="N27" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="B28" t="n">
-        <v>74.9400024414062</v>
+        <v>73.1900024414062</v>
       </c>
       <c r="C28" t="n">
-        <v>56.0400009155273</v>
+        <v>55.1800003051758</v>
       </c>
       <c r="D28" t="n">
-        <v>9.2819995880127</v>
+        <v>8.71199989318848</v>
       </c>
       <c r="E28" t="n">
-        <v>55.8199996948242</v>
+        <v>55.5999984741211</v>
       </c>
       <c r="F28" t="n">
-        <v>43.8600006103516</v>
+        <v>45.2400016784668</v>
       </c>
       <c r="G28" t="n">
-        <v>6.14400005340576</v>
+        <v>43.7949981689453</v>
       </c>
       <c r="H28" t="n">
-        <v>114.316329956055</v>
+        <v>6.01999998092651</v>
       </c>
       <c r="I28" t="n">
-        <v>180.386199951172</v>
+        <v>112.150260925293</v>
       </c>
       <c r="J28" t="n">
-        <v>227.259994506836</v>
+        <v>171.073791503906</v>
       </c>
       <c r="K28" t="n">
-        <v>103</v>
+        <v>215.889999389648</v>
       </c>
       <c r="L28" t="n">
-        <v>4.51182842254639</v>
+        <v>103.151000976562</v>
       </c>
       <c r="M28" t="n">
+        <v>4.5333776473999</v>
+      </c>
+      <c r="N28" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B29" t="n">
-        <v>71.5299987792969</v>
+        <v>74.9400024414062</v>
       </c>
       <c r="C29" t="n">
-        <v>53.7000007629395</v>
+        <v>56.0400009155273</v>
       </c>
       <c r="D29" t="n">
-        <v>9.27700042724609</v>
+        <v>9.2819995880127</v>
       </c>
       <c r="E29" t="n">
-        <v>53.3600006103516</v>
+        <v>55.8199996948242</v>
       </c>
       <c r="F29" t="n">
-        <v>41.4199981689453</v>
+        <v>46.875</v>
       </c>
       <c r="G29" t="n">
-        <v>5.8914999961853</v>
+        <v>43.8600006103516</v>
       </c>
       <c r="H29" t="n">
-        <v>110.767295837402</v>
+        <v>6.14400005340576</v>
       </c>
       <c r="I29" t="n">
-        <v>176.567489624023</v>
+        <v>114.31632232666</v>
       </c>
       <c r="J29" t="n">
-        <v>219.520004272461</v>
+        <v>180.386215209961</v>
       </c>
       <c r="K29" t="n">
-        <v>102.910003662109</v>
+        <v>227.259994506836</v>
       </c>
       <c r="L29" t="n">
-        <v>4.49746227264404</v>
+        <v>103</v>
       </c>
       <c r="M29" t="n">
+        <v>4.51182842254639</v>
+      </c>
+      <c r="N29" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B30" t="n">
-        <v>67.879997253418</v>
+        <v>71.5299987792969</v>
       </c>
       <c r="C30" t="n">
-        <v>49.4500007629395</v>
+        <v>53.7000007629395</v>
       </c>
       <c r="D30" t="n">
-        <v>8.81700038909912</v>
+        <v>9.27700042724609</v>
       </c>
       <c r="E30" t="n">
-        <v>51.0800018310547</v>
+        <v>53.3600006103516</v>
       </c>
       <c r="F30" t="n">
-        <v>39.5</v>
+        <v>47.1599998474121</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5310001373291</v>
+        <v>41.4199981689453</v>
       </c>
       <c r="H30" t="n">
-        <v>110.899803161621</v>
+        <v>5.8914999961853</v>
       </c>
       <c r="I30" t="n">
-        <v>175.558441162109</v>
+        <v>110.767303466797</v>
       </c>
       <c r="J30" t="n">
-        <v>212.690002441406</v>
+        <v>176.567504882812</v>
       </c>
       <c r="K30" t="n">
-        <v>102.861999511719</v>
+        <v>219.520004272461</v>
       </c>
       <c r="L30" t="n">
-        <v>4.49252367019653</v>
+        <v>102.910003662109</v>
       </c>
       <c r="M30" t="n">
+        <v>4.49746227264404</v>
+      </c>
+      <c r="N30" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B31" t="n">
-        <v>73.7600021362305</v>
+        <v>67.879997253418</v>
       </c>
       <c r="C31" t="n">
-        <v>53.0800018310547</v>
+        <v>49.4500007629395</v>
       </c>
       <c r="D31" t="n">
-        <v>9.39099979400635</v>
+        <v>8.81700038909912</v>
       </c>
       <c r="E31" t="n">
-        <v>54.3899993896484</v>
+        <v>51.0800018310547</v>
       </c>
       <c r="F31" t="n">
-        <v>42.5900001525879</v>
+        <v>44.5999984741211</v>
       </c>
       <c r="G31" t="n">
-        <v>6.08150005340576</v>
+        <v>39.5</v>
       </c>
       <c r="H31" t="n">
-        <v>114.28279876709</v>
+        <v>5.5310001373291</v>
       </c>
       <c r="I31" t="n">
-        <v>184.002212524414</v>
+        <v>110.899795532227</v>
       </c>
       <c r="J31" t="n">
-        <v>226.160003662109</v>
+        <v>175.558441162109</v>
       </c>
       <c r="K31" t="n">
-        <v>102.839996337891</v>
+        <v>212.690002441406</v>
       </c>
       <c r="L31" t="n">
-        <v>4.48767328262329</v>
+        <v>102.861999511719</v>
       </c>
       <c r="M31" t="n">
+        <v>4.49252414703369</v>
+      </c>
+      <c r="N31" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44771</v>
+        <v>44804</v>
       </c>
       <c r="B32" t="n">
-        <v>76.2699966430664</v>
+        <v>73.7600021362305</v>
       </c>
       <c r="C32" t="n">
-        <v>53.9199981689453</v>
+        <v>53.0800018310547</v>
       </c>
       <c r="D32" t="n">
-        <v>9.59700012207031</v>
+        <v>9.39099979400635</v>
       </c>
       <c r="E32" t="n">
-        <v>55.6699981689453</v>
+        <v>54.3899993896484</v>
       </c>
       <c r="F32" t="n">
-        <v>43.5550003051758</v>
+        <v>44.6399993896484</v>
       </c>
       <c r="G32" t="n">
-        <v>6.24749994277954</v>
+        <v>42.5900001525879</v>
       </c>
       <c r="H32" t="n">
-        <v>120.805435180664</v>
+        <v>6.08150005340576</v>
       </c>
       <c r="I32" t="n">
-        <v>195.349472045898</v>
+        <v>114.282806396484</v>
       </c>
       <c r="J32" t="n">
-        <v>236.960006713867</v>
+        <v>184.002212524414</v>
       </c>
       <c r="K32" t="n">
-        <v>102.866996765137</v>
+        <v>226.160003662109</v>
       </c>
       <c r="L32" t="n">
-        <v>4.48231029510498</v>
+        <v>102.839996337891</v>
       </c>
       <c r="M32" t="n">
+        <v>4.48767375946045</v>
+      </c>
+      <c r="N32" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44742</v>
+        <v>44771</v>
       </c>
       <c r="B33" t="n">
-        <v>71</v>
+        <v>76.2699966430664</v>
       </c>
       <c r="C33" t="n">
-        <v>51.7799987792969</v>
+        <v>53.9199981689453</v>
       </c>
       <c r="D33" t="n">
-        <v>8.64999961853027</v>
+        <v>9.59700012207031</v>
       </c>
       <c r="E33" t="n">
-        <v>53.8899993896484</v>
+        <v>55.6699981689453</v>
       </c>
       <c r="F33" t="n">
-        <v>41.8400001525879</v>
+        <v>46.4949989318848</v>
       </c>
       <c r="G33" t="n">
-        <v>5.75250005722046</v>
+        <v>43.5550003051758</v>
       </c>
       <c r="H33" t="n">
-        <v>114.396072387695</v>
+        <v>6.24749994277954</v>
       </c>
       <c r="I33" t="n">
-        <v>186.686721801758</v>
+        <v>120.805419921875</v>
       </c>
       <c r="J33" t="n">
-        <v>224.509994506836</v>
+        <v>195.349456787109</v>
       </c>
       <c r="K33" t="n">
-        <v>102.900001525879</v>
+        <v>236.960006713867</v>
       </c>
       <c r="L33" t="n">
-        <v>4.47918033599854</v>
+        <v>102.866996765137</v>
       </c>
       <c r="M33" t="n">
+        <v>4.48230981826782</v>
+      </c>
+      <c r="N33" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B34" t="n">
-        <v>77.7300033569336</v>
+        <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>56.0200004577637</v>
+        <v>51.7799987792969</v>
       </c>
       <c r="D34" t="n">
-        <v>9.26399993896484</v>
+        <v>8.64999961853027</v>
       </c>
       <c r="E34" t="n">
-        <v>56.2200012207031</v>
+        <v>53.8899993896484</v>
       </c>
       <c r="F34" t="n">
-        <v>43.3499984741211</v>
+        <v>43.9599990844727</v>
       </c>
       <c r="G34" t="n">
-        <v>6.37099981307983</v>
+        <v>41.8400001525879</v>
       </c>
       <c r="H34" t="n">
-        <v>118.473503112793</v>
+        <v>5.75250005722046</v>
       </c>
       <c r="I34" t="n">
-        <v>190.247024536133</v>
+        <v>114.39608001709</v>
       </c>
       <c r="J34" t="n">
-        <v>231.740005493164</v>
+        <v>186.686721801758</v>
       </c>
       <c r="K34" t="n">
-        <v>102.976997375488</v>
+        <v>224.509994506836</v>
       </c>
       <c r="L34" t="n">
-        <v>4.48365116119385</v>
+        <v>102.900001525879</v>
       </c>
       <c r="M34" t="n">
+        <v>4.47918128967285</v>
+      </c>
+      <c r="N34" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44680</v>
+        <v>44712</v>
       </c>
       <c r="B35" t="n">
-        <v>79.1500015258789</v>
+        <v>77.7300033569336</v>
       </c>
       <c r="C35" t="n">
-        <v>57.4500007629395</v>
+        <v>56.0200004577637</v>
       </c>
       <c r="D35" t="n">
-        <v>9.70699977874756</v>
+        <v>9.26399993896484</v>
       </c>
       <c r="E35" t="n">
-        <v>57.5800018310547</v>
+        <v>56.2200012207031</v>
       </c>
       <c r="F35" t="n">
-        <v>45.5499992370605</v>
+        <v>44.3250007629395</v>
       </c>
       <c r="G35" t="n">
-        <v>6.49100017547607</v>
+        <v>43.3499984741211</v>
       </c>
       <c r="H35" t="n">
-        <v>119.594390869141</v>
+        <v>6.37099981307983</v>
       </c>
       <c r="I35" t="n">
-        <v>193.312271118164</v>
+        <v>118.473510742188</v>
       </c>
       <c r="J35" t="n">
-        <v>240.740005493164</v>
+        <v>190.247024536133</v>
       </c>
       <c r="K35" t="n">
-        <v>103.055999755859</v>
+        <v>231.740005493164</v>
       </c>
       <c r="L35" t="n">
-        <v>4.48007488250732</v>
+        <v>102.976997375488</v>
       </c>
       <c r="M35" t="n">
+        <v>4.48365068435669</v>
+      </c>
+      <c r="N35" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44651</v>
+        <v>44680</v>
       </c>
       <c r="B36" t="n">
-        <v>85.5800018310547</v>
+        <v>79.1500015258789</v>
       </c>
       <c r="C36" t="n">
-        <v>64.0899963378906</v>
+        <v>57.4500007629395</v>
       </c>
       <c r="D36" t="n">
-        <v>9.93599987030029</v>
+        <v>9.70699977874756</v>
       </c>
       <c r="E36" t="n">
-        <v>60.0400009155273</v>
+        <v>57.5800018310547</v>
       </c>
       <c r="F36" t="n">
-        <v>44.939998626709</v>
+        <v>45.375</v>
       </c>
       <c r="G36" t="n">
-        <v>6.97650003433228</v>
+        <v>45.5499992370605</v>
       </c>
       <c r="H36" t="n">
-        <v>123.456214904785</v>
+        <v>6.49100017547607</v>
       </c>
       <c r="I36" t="n">
-        <v>201.099227905273</v>
+        <v>119.594375610352</v>
       </c>
       <c r="J36" t="n">
-        <v>243.179992675781</v>
+        <v>193.312301635742</v>
       </c>
       <c r="K36" t="n">
-        <v>103.087997436523</v>
+        <v>240.740005493164</v>
       </c>
       <c r="L36" t="n">
-        <v>4.48007488250732</v>
+        <v>103.055999755859</v>
       </c>
       <c r="M36" t="n">
+        <v>4.48007535934448</v>
+      </c>
+      <c r="N36" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B37" t="n">
-        <v>82.6699981689453</v>
+        <v>85.5800018310547</v>
       </c>
       <c r="C37" t="n">
-        <v>60.7099990844727</v>
+        <v>64.0899963378906</v>
       </c>
       <c r="D37" t="n">
-        <v>9.34500026702881</v>
+        <v>9.93599987030029</v>
       </c>
       <c r="E37" t="n">
-        <v>57.2099990844727</v>
+        <v>60.0400009155273</v>
       </c>
       <c r="F37" t="n">
-        <v>44.7949981689453</v>
+        <v>45.1699981689453</v>
       </c>
       <c r="G37" t="n">
-        <v>6.9060001373291</v>
+        <v>44.939998626709</v>
       </c>
       <c r="H37" t="n">
-        <v>125.47021484375</v>
+        <v>6.97650003433228</v>
       </c>
       <c r="I37" t="n">
-        <v>207.286895751953</v>
+        <v>123.456230163574</v>
       </c>
       <c r="J37" t="n">
-        <v>238.139999389648</v>
+        <v>201.099227905273</v>
       </c>
       <c r="K37" t="n">
-        <v>103.161003112793</v>
+        <v>243.179992675781</v>
       </c>
       <c r="L37" t="n">
-        <v>4.48186302185059</v>
+        <v>103.087997436523</v>
       </c>
       <c r="M37" t="n">
+        <v>4.48007535934448</v>
+      </c>
+      <c r="N37" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B38" t="n">
-        <v>84</v>
+        <v>82.6699981689453</v>
       </c>
       <c r="C38" t="n">
-        <v>61.5499992370605</v>
+        <v>60.7099990844727</v>
       </c>
       <c r="D38" t="n">
-        <v>9.61999988555908</v>
+        <v>9.34500026702881</v>
       </c>
       <c r="E38" t="n">
-        <v>57.7799987792969</v>
+        <v>57.2099990844727</v>
       </c>
       <c r="F38" t="n">
-        <v>44.810001373291</v>
+        <v>42.125</v>
       </c>
       <c r="G38" t="n">
-        <v>6.79400014877319</v>
+        <v>44.7949981689453</v>
       </c>
       <c r="H38" t="n">
-        <v>128.403884887695</v>
+        <v>6.9060001373291</v>
       </c>
       <c r="I38" t="n">
-        <v>211.29460144043</v>
+        <v>125.47021484375</v>
       </c>
       <c r="J38" t="n">
-        <v>237.919998168945</v>
+        <v>207.286865234375</v>
       </c>
       <c r="K38" t="n">
-        <v>103.208999633789</v>
+        <v>238.139999389648</v>
       </c>
       <c r="L38" t="n">
-        <v>4.48275709152222</v>
+        <v>103.161003112793</v>
       </c>
       <c r="M38" t="n">
+        <v>4.48186302185059</v>
+      </c>
+      <c r="N38" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44560</v>
+        <v>44592</v>
       </c>
       <c r="B39" t="n">
-        <v>89.8399963378906</v>
+        <v>84</v>
       </c>
       <c r="C39" t="n">
-        <v>67.7200012207031</v>
+        <v>61.5499992370605</v>
       </c>
       <c r="D39" t="n">
-        <v>10.4340000152588</v>
+        <v>9.61999988555908</v>
       </c>
       <c r="E39" t="n">
-        <v>61.6500015258789</v>
+        <v>57.7799987792969</v>
       </c>
       <c r="F39" t="n">
-        <v>46.2999992370605</v>
+        <v>42.2299995422363</v>
       </c>
       <c r="G39" t="n">
-        <v>7.44500017166138</v>
+        <v>44.810001373291</v>
       </c>
       <c r="H39" t="n">
-        <v>130.641754150391</v>
+        <v>6.79400014877319</v>
       </c>
       <c r="I39" t="n">
-        <v>214.112365722656</v>
+        <v>128.403854370117</v>
       </c>
       <c r="J39" t="n">
-        <v>239.119995117188</v>
+        <v>211.29460144043</v>
       </c>
       <c r="K39" t="n">
-        <v>103.278999328613</v>
+        <v>237.919998168945</v>
       </c>
       <c r="L39" t="n">
-        <v>4.48454427719116</v>
+        <v>103.208999633789</v>
       </c>
       <c r="M39" t="n">
+        <v>4.4827561378479</v>
+      </c>
+      <c r="N39" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44530</v>
+        <v>44560</v>
       </c>
       <c r="B40" t="n">
-        <v>85.8899993896484</v>
+        <v>89.8399963378906</v>
       </c>
       <c r="C40" t="n">
-        <v>66.4400024414062</v>
+        <v>67.7200012207031</v>
       </c>
       <c r="D40" t="n">
-        <v>10.1099996566772</v>
+        <v>10.4340000152588</v>
       </c>
       <c r="E40" t="n">
-        <v>58.5299987792969</v>
+        <v>61.6500015258789</v>
       </c>
       <c r="F40" t="n">
-        <v>43.2099990844727</v>
+        <v>45.6549987792969</v>
       </c>
       <c r="G40" t="n">
-        <v>7.17199993133545</v>
+        <v>46.2999992370605</v>
       </c>
       <c r="H40" t="n">
-        <v>130.676376342773</v>
+        <v>7.44500017166138</v>
       </c>
       <c r="I40" t="n">
-        <v>217.339462280273</v>
+        <v>130.641723632812</v>
       </c>
       <c r="J40" t="n">
-        <v>238.740005493164</v>
+        <v>214.112365722656</v>
       </c>
       <c r="K40" t="n">
-        <v>103.343002319336</v>
+        <v>239.119995117188</v>
       </c>
       <c r="L40" t="n">
-        <v>4.48543834686279</v>
+        <v>103.278999328613</v>
       </c>
       <c r="M40" t="n">
+        <v>4.48454475402832</v>
+      </c>
+      <c r="N40" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44498</v>
+        <v>44530</v>
       </c>
       <c r="B41" t="n">
-        <v>87.5199966430664</v>
+        <v>85.8899993896484</v>
       </c>
       <c r="C41" t="n">
-        <v>68.4300003051758</v>
+        <v>66.4400024414062</v>
       </c>
       <c r="D41" t="n">
-        <v>9.86200046539307</v>
+        <v>10.1099996566772</v>
       </c>
       <c r="E41" t="n">
-        <v>59.4000015258789</v>
+        <v>58.5299987792969</v>
       </c>
       <c r="F41" t="n">
-        <v>43.8499984741211</v>
+        <v>42.7099990844727</v>
       </c>
       <c r="G41" t="n">
-        <v>7.53000020980835</v>
+        <v>43.2099990844727</v>
       </c>
       <c r="H41" t="n">
-        <v>130.357192993164</v>
+        <v>7.17199993133545</v>
       </c>
       <c r="I41" t="n">
-        <v>213.065231323242</v>
+        <v>130.676345825195</v>
       </c>
       <c r="J41" t="n">
-        <v>235.520004272461</v>
+        <v>217.339477539062</v>
       </c>
       <c r="K41" t="n">
-        <v>103.411003112793</v>
+        <v>238.740005493164</v>
       </c>
       <c r="L41" t="n">
+        <v>103.343002319336</v>
+      </c>
+      <c r="M41" t="n">
         <v>4.48543834686279</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44469</v>
+        <v>44498</v>
       </c>
       <c r="B42" t="n">
-        <v>83.370002746582</v>
+        <v>87.5199966430664</v>
       </c>
       <c r="C42" t="n">
-        <v>64.0699996948242</v>
+        <v>68.4300003051758</v>
       </c>
       <c r="D42" t="n">
-        <v>9.24400043487549</v>
+        <v>9.86200046539307</v>
       </c>
       <c r="E42" t="n">
-        <v>57.7700004577637</v>
+        <v>59.4000015258789</v>
       </c>
       <c r="F42" t="n">
-        <v>42.5999984741211</v>
+        <v>42.7299995422363</v>
       </c>
       <c r="G42" t="n">
-        <v>7.28800010681152</v>
+        <v>43.8499984741211</v>
       </c>
       <c r="H42" t="n">
-        <v>131.295974731445</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="I42" t="n">
-        <v>216.063842773438</v>
+        <v>130.357192993164</v>
       </c>
       <c r="J42" t="n">
-        <v>235.320007324219</v>
+        <v>213.065231323242</v>
       </c>
       <c r="K42" t="n">
-        <v>103.46199798584</v>
+        <v>235.520004272461</v>
       </c>
       <c r="L42" t="n">
+        <v>103.411003112793</v>
+      </c>
+      <c r="M42" t="n">
         <v>4.48543834686279</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B43" t="n">
-        <v>86.6100006103516</v>
+        <v>83.370002746582</v>
       </c>
       <c r="C43" t="n">
-        <v>66.2200012207031</v>
+        <v>64.0699996948242</v>
       </c>
       <c r="D43" t="n">
-        <v>9.6230001449585</v>
+        <v>9.24400043487549</v>
       </c>
       <c r="E43" t="n">
-        <v>60.3899993896484</v>
+        <v>57.7700004577637</v>
       </c>
       <c r="F43" t="n">
-        <v>44.1199989318848</v>
+        <v>41.4599990844727</v>
       </c>
       <c r="G43" t="n">
-        <v>7.45599985122681</v>
+        <v>42.5999984741211</v>
       </c>
       <c r="H43" t="n">
-        <v>132.21891784668</v>
+        <v>7.28800010681152</v>
       </c>
       <c r="I43" t="n">
-        <v>218.929229736328</v>
+        <v>131.295959472656</v>
       </c>
       <c r="J43" t="n">
-        <v>234.5</v>
+        <v>216.063858032227</v>
       </c>
       <c r="K43" t="n">
-        <v>103.517997741699</v>
+        <v>235.320007324219</v>
       </c>
       <c r="L43" t="n">
-        <v>4.48597478866577</v>
+        <v>103.46199798584</v>
       </c>
       <c r="M43" t="n">
+        <v>4.48543834686279</v>
+      </c>
+      <c r="N43" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44407</v>
+        <v>44439</v>
       </c>
       <c r="B44" t="n">
-        <v>84.4599990844727</v>
+        <v>86.6100006103516</v>
       </c>
       <c r="C44" t="n">
-        <v>64.120002746582</v>
+        <v>66.2200012207031</v>
       </c>
       <c r="D44" t="n">
-        <v>9.29199981689453</v>
+        <v>9.6230001449585</v>
       </c>
       <c r="E44" t="n">
-        <v>59.3600006103516</v>
+        <v>60.3899993896484</v>
       </c>
       <c r="F44" t="n">
-        <v>43.9000015258789</v>
+        <v>42.6500015258789</v>
       </c>
       <c r="G44" t="n">
-        <v>7.29650020599365</v>
+        <v>44.1199989318848</v>
       </c>
       <c r="H44" t="n">
-        <v>132.903015136719</v>
+        <v>7.45599985122681</v>
       </c>
       <c r="I44" t="n">
-        <v>220.290512084961</v>
+        <v>132.218902587891</v>
       </c>
       <c r="J44" t="n">
-        <v>234.979995727539</v>
+        <v>218.929244995117</v>
       </c>
       <c r="K44" t="n">
-        <v>103.58699798584</v>
+        <v>234.5</v>
       </c>
       <c r="L44" t="n">
+        <v>103.517997741699</v>
+      </c>
+      <c r="M44" t="n">
         <v>4.48597478866577</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>149.520004272461</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44377</v>
+        <v>44407</v>
       </c>
       <c r="B45" t="n">
-        <v>82.8399963378906</v>
+        <v>84.4599990844727</v>
       </c>
       <c r="C45" t="n">
-        <v>63.0299987792969</v>
+        <v>64.120002746582</v>
       </c>
       <c r="D45" t="n">
-        <v>8.99499988555908</v>
+        <v>9.29199981689453</v>
       </c>
       <c r="E45" t="n">
-        <v>57.6699981689453</v>
+        <v>59.3600006103516</v>
       </c>
       <c r="F45" t="n">
-        <v>43.1949996948242</v>
+        <v>41.3650016784668</v>
       </c>
       <c r="G45" t="n">
-        <v>7.33850002288818</v>
+        <v>43.9000015258789</v>
       </c>
       <c r="H45" t="n">
-        <v>131.338012695312</v>
+        <v>7.29650020599365</v>
       </c>
       <c r="I45" t="n">
-        <v>216.38752746582</v>
+        <v>132.903015136719</v>
       </c>
       <c r="J45" t="n">
-        <v>228.839996337891</v>
+        <v>220.290542602539</v>
       </c>
       <c r="K45" t="n">
-        <v>103.644996643066</v>
+        <v>234.979995727539</v>
       </c>
       <c r="L45" t="n">
+        <v>103.58699798584</v>
+      </c>
+      <c r="M45" t="n">
         <v>4.48597478866577</v>
       </c>
-      <c r="M45" t="n">
-        <v>144.160003662109</v>
+      <c r="N45" t="n">
+        <v>149.520004272461</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44344</v>
+        <v>44377</v>
       </c>
       <c r="B46" t="n">
-        <v>81.9599990844727</v>
+        <v>82.8399963378906</v>
       </c>
       <c r="C46" t="n">
-        <v>62.435001373291</v>
+        <v>63.0299987792969</v>
       </c>
       <c r="D46" t="n">
-        <v>8.48999977111816</v>
+        <v>8.99499988555908</v>
       </c>
       <c r="E46" t="n">
-        <v>57.3899993896484</v>
+        <v>57.6699981689453</v>
       </c>
       <c r="F46" t="n">
-        <v>43.5349998474121</v>
+        <v>39.8050003051758</v>
       </c>
       <c r="G46" t="n">
-        <v>7.33500003814697</v>
+        <v>43.1949996948242</v>
       </c>
       <c r="H46" t="n">
-        <v>130.700576782227</v>
+        <v>7.33850002288818</v>
       </c>
       <c r="I46" t="n">
-        <v>215.378448486328</v>
+        <v>131.338012695312</v>
       </c>
       <c r="J46" t="n">
-        <v>228.009994506836</v>
+        <v>216.387542724609</v>
       </c>
       <c r="K46" t="n">
-        <v>103.707000732422</v>
+        <v>228.839996337891</v>
       </c>
       <c r="L46" t="n">
+        <v>103.644996643066</v>
+      </c>
+      <c r="M46" t="n">
         <v>4.48597478866577</v>
       </c>
-      <c r="M46" t="n">
-        <v>150.389999389648</v>
+      <c r="N46" t="n">
+        <v>144.160003662109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="B47" t="n">
-        <v>80.5800018310547</v>
+        <v>81.9599990844727</v>
       </c>
       <c r="C47" t="n">
-        <v>63.2099990844727</v>
+        <v>62.435001373291</v>
       </c>
       <c r="D47" t="n">
-        <v>8.49499988555908</v>
+        <v>8.48999977111816</v>
       </c>
       <c r="E47" t="n">
-        <v>56.0900001525879</v>
+        <v>57.3899993896484</v>
       </c>
       <c r="F47" t="n">
-        <v>41.9949989318848</v>
+        <v>37.7949981689453</v>
       </c>
       <c r="G47" t="n">
-        <v>7.29449987411499</v>
+        <v>43.5349998474121</v>
       </c>
       <c r="H47" t="n">
-        <v>131.130844116211</v>
+        <v>7.33500003814697</v>
       </c>
       <c r="I47" t="n">
-        <v>215.454605102539</v>
+        <v>130.700561523438</v>
       </c>
       <c r="J47" t="n">
-        <v>226.660003662109</v>
+        <v>215.378448486328</v>
       </c>
       <c r="K47" t="n">
-        <v>103.764999389648</v>
+        <v>228.009994506836</v>
       </c>
       <c r="L47" t="n">
-        <v>4.48642158508301</v>
+        <v>103.707000732422</v>
       </c>
       <c r="M47" t="n">
-        <v>142.190002441406</v>
+        <v>4.48597478866577</v>
+      </c>
+      <c r="N47" t="n">
+        <v>150.389999389648</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B48" t="n">
-        <v>77.0699996948242</v>
+        <v>80.5800018310547</v>
       </c>
       <c r="C48" t="n">
-        <v>59.1199989318848</v>
+        <v>63.2099990844727</v>
       </c>
       <c r="D48" t="n">
-        <v>8.32199954986572</v>
+        <v>8.49499988555908</v>
       </c>
       <c r="E48" t="n">
-        <v>54.6699981689453</v>
+        <v>56.0900001525879</v>
       </c>
       <c r="F48" t="n">
-        <v>41.0149993896484</v>
+        <v>37.3349990844727</v>
       </c>
       <c r="G48" t="n">
-        <v>7.00099992752075</v>
+        <v>41.9949989318848</v>
       </c>
       <c r="H48" t="n">
-        <v>131.168258666992</v>
+        <v>7.29449987411499</v>
       </c>
       <c r="I48" t="n">
-        <v>217.625045776367</v>
+        <v>131.130844116211</v>
       </c>
       <c r="J48" t="n">
-        <v>228.110000610352</v>
+        <v>215.454620361328</v>
       </c>
       <c r="K48" t="n">
-        <v>103.815002441406</v>
+        <v>226.660003662109</v>
       </c>
       <c r="L48" t="n">
-        <v>4.48597478866577</v>
+        <v>103.764999389648</v>
       </c>
       <c r="M48" t="n">
-        <v>140.600006103516</v>
+        <v>4.48642110824585</v>
+      </c>
+      <c r="N48" t="n">
+        <v>142.190002441406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44253</v>
+        <v>44286</v>
       </c>
       <c r="B49" t="n">
-        <v>74.8300018310547</v>
+        <v>77.0699996948242</v>
       </c>
       <c r="C49" t="n">
-        <v>59.2299995422363</v>
+        <v>59.1199989318848</v>
       </c>
       <c r="D49" t="n">
-        <v>7.7350001335144</v>
+        <v>8.32199954986572</v>
       </c>
       <c r="E49" t="n">
-        <v>52.2099990844727</v>
+        <v>54.6699981689453</v>
       </c>
       <c r="F49" t="n">
-        <v>38.3400001525879</v>
+        <v>36.9199981689453</v>
       </c>
       <c r="G49" t="n">
-        <v>6.87900018692017</v>
+        <v>41.0149993896484</v>
       </c>
       <c r="H49" t="n">
-        <v>130.739059448242</v>
+        <v>7.00099992752075</v>
       </c>
       <c r="I49" t="n">
-        <v>216.397064208984</v>
+        <v>131.168243408203</v>
       </c>
       <c r="J49" t="n">
-        <v>223.119995117188</v>
+        <v>217.625061035156</v>
       </c>
       <c r="K49" t="n">
-        <v>103.889999389648</v>
+        <v>228.110000610352</v>
       </c>
       <c r="L49" t="n">
-        <v>4.48561668395996</v>
+        <v>103.815002441406</v>
       </c>
       <c r="M49" t="n">
-        <v>137.899993896484</v>
+        <v>4.48597478866577</v>
+      </c>
+      <c r="N49" t="n">
+        <v>140.600006103516</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44225</v>
+        <v>44253</v>
       </c>
       <c r="B50" t="n">
-        <v>72.7900009155273</v>
+        <v>74.8300018310547</v>
       </c>
       <c r="C50" t="n">
-        <v>59.5499992370605</v>
+        <v>59.2299995422363</v>
       </c>
       <c r="D50" t="n">
-        <v>7.45699977874756</v>
+        <v>7.7350001335144</v>
       </c>
       <c r="E50" t="n">
-        <v>53</v>
+        <v>52.2099990844727</v>
       </c>
       <c r="F50" t="n">
-        <v>39.4799995422363</v>
+        <v>34.9599990844727</v>
       </c>
       <c r="G50" t="n">
-        <v>6.5939998626709</v>
+        <v>38.3400001525879</v>
       </c>
       <c r="H50" t="n">
-        <v>132.335327148438</v>
+        <v>6.87900018692017</v>
       </c>
       <c r="I50" t="n">
-        <v>220.56657409668</v>
+        <v>130.739059448242</v>
       </c>
       <c r="J50" t="n">
-        <v>226.259994506836</v>
+        <v>216.397048950195</v>
       </c>
       <c r="K50" t="n">
-        <v>103.948997497559</v>
+        <v>223.119995117188</v>
       </c>
       <c r="L50" t="n">
-        <v>4.48606395721436</v>
+        <v>103.889999389648</v>
       </c>
       <c r="M50" t="n">
-        <v>148.240005493164</v>
+        <v>4.48561716079712</v>
+      </c>
+      <c r="N50" t="n">
+        <v>137.899993896484</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44195</v>
+        <v>44225</v>
       </c>
       <c r="B51" t="n">
-        <v>73.3199996948242</v>
+        <v>72.7900009155273</v>
       </c>
       <c r="C51" t="n">
-        <v>58.9500007629395</v>
+        <v>59.5499992370605</v>
       </c>
       <c r="D51" t="n">
-        <v>7.50400018692017</v>
+        <v>7.45699977874756</v>
       </c>
       <c r="E51" t="n">
-        <v>53.8400001525879</v>
+        <v>53</v>
       </c>
       <c r="F51" t="n">
-        <v>41.1699981689453</v>
+        <v>35.8349990844727</v>
       </c>
       <c r="G51" t="n">
-        <v>6.42950010299683</v>
+        <v>39.4799995422363</v>
       </c>
       <c r="H51" t="n">
-        <v>132.438049316406</v>
+        <v>6.5939998626709</v>
       </c>
       <c r="I51" t="n">
-        <v>221.451889038086</v>
+        <v>132.335327148438</v>
       </c>
       <c r="J51" t="n">
-        <v>225.490005493164</v>
+        <v>220.566589355469</v>
       </c>
       <c r="K51" t="n">
-        <v>104.000999450684</v>
+        <v>226.259994506836</v>
       </c>
       <c r="L51" t="n">
-        <v>4.48472356796265</v>
+        <v>103.948997497559</v>
       </c>
       <c r="M51" t="n">
-        <v>148.75</v>
+        <v>4.48606300354004</v>
+      </c>
+      <c r="N51" t="n">
+        <v>148.240005493164</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44165</v>
+        <v>44195</v>
       </c>
       <c r="B52" t="n">
-        <v>69.9800033569336</v>
+        <v>73.3199996948242</v>
       </c>
       <c r="C52" t="n">
-        <v>55.9799995422363</v>
+        <v>58.9500007629395</v>
       </c>
       <c r="D52" t="n">
-        <v>7.43699979782104</v>
+        <v>7.50400018692017</v>
       </c>
       <c r="E52" t="n">
-        <v>52.5</v>
+        <v>53.8400001525879</v>
       </c>
       <c r="F52" t="n">
-        <v>39.8549995422363</v>
+        <v>34.8050003051758</v>
       </c>
       <c r="G52" t="n">
-        <v>5.97399997711182</v>
+        <v>41.1699981689453</v>
       </c>
       <c r="H52" t="n">
-        <v>132.424240112305</v>
+        <v>6.42950010299683</v>
       </c>
       <c r="I52" t="n">
-        <v>221.099685668945</v>
+        <v>132.438034057617</v>
       </c>
       <c r="J52" t="n">
-        <v>224.169998168945</v>
+        <v>221.451904296875</v>
       </c>
       <c r="K52" t="n">
-        <v>104.064002990723</v>
+        <v>225.490005493164</v>
       </c>
       <c r="L52" t="n">
-        <v>4.48472356796265</v>
+        <v>104.000999450684</v>
       </c>
       <c r="M52" t="n">
-        <v>144.350006103516</v>
+        <v>4.4847240447998</v>
+      </c>
+      <c r="N52" t="n">
+        <v>148.75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B53" t="n">
-        <v>62.25</v>
+        <v>69.9800033569336</v>
       </c>
       <c r="C53" t="n">
-        <v>51.5950012207031</v>
+        <v>55.9799995422363</v>
       </c>
       <c r="D53" t="n">
-        <v>6.875</v>
+        <v>7.43699979782104</v>
       </c>
       <c r="E53" t="n">
-        <v>49.4099998474121</v>
+        <v>52.5</v>
       </c>
       <c r="F53" t="n">
-        <v>37.1699981689453</v>
+        <v>34.7750015258789</v>
       </c>
       <c r="G53" t="n">
-        <v>5.18300008773804</v>
+        <v>39.8549995422363</v>
       </c>
       <c r="H53" t="n">
-        <v>131.222518920898</v>
+        <v>5.97399997711182</v>
       </c>
       <c r="I53" t="n">
-        <v>220.919418334961</v>
+        <v>132.424255371094</v>
       </c>
       <c r="J53" t="n">
-        <v>220.770004272461</v>
+        <v>221.099670410156</v>
       </c>
       <c r="K53" t="n">
-        <v>104.138999938965</v>
+        <v>224.169998168945</v>
       </c>
       <c r="L53" t="n">
-        <v>4.48383092880249</v>
+        <v>104.064002990723</v>
       </c>
       <c r="M53" t="n">
-        <v>156.380004882812</v>
+        <v>4.4847240447998</v>
+      </c>
+      <c r="N53" t="n">
+        <v>144.350006103516</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B54" t="n">
-        <v>64.4700012207031</v>
+        <v>62.25</v>
       </c>
       <c r="C54" t="n">
-        <v>53.439998626709</v>
+        <v>51.5950012207031</v>
       </c>
       <c r="D54" t="n">
-        <v>7.05800008773804</v>
+        <v>6.875</v>
       </c>
       <c r="E54" t="n">
-        <v>51.0800018310547</v>
+        <v>49.4099998474121</v>
       </c>
       <c r="F54" t="n">
-        <v>38.6450004577637</v>
+        <v>32.8549995422363</v>
       </c>
       <c r="G54" t="n">
-        <v>5.20499992370605</v>
+        <v>37.1699981689453</v>
       </c>
       <c r="H54" t="n">
-        <v>130.374801635742</v>
+        <v>5.18300008773804</v>
       </c>
       <c r="I54" t="n">
-        <v>218.987197875977</v>
+        <v>131.222534179688</v>
       </c>
       <c r="J54" t="n">
-        <v>218.669998168945</v>
+        <v>220.919418334961</v>
       </c>
       <c r="K54" t="n">
-        <v>104.182998657227</v>
+        <v>220.770004272461</v>
       </c>
       <c r="L54" t="n">
-        <v>4.48427772521973</v>
+        <v>104.138999938965</v>
       </c>
       <c r="M54" t="n">
-        <v>156.029998779297</v>
+        <v>4.48383092880249</v>
+      </c>
+      <c r="N54" t="n">
+        <v>156.380004882812</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44071</v>
+        <v>44104</v>
       </c>
       <c r="B55" t="n">
-        <v>66.4499969482422</v>
+        <v>64.4700012207031</v>
       </c>
       <c r="C55" t="n">
-        <v>54.5200004577637</v>
+        <v>53.439998626709</v>
       </c>
       <c r="D55" t="n">
-        <v>7.16099977493286</v>
+        <v>7.05800008773804</v>
       </c>
       <c r="E55" t="n">
-        <v>51.7700004577637</v>
+        <v>51.0800018310547</v>
       </c>
       <c r="F55" t="n">
-        <v>38.9799995422363</v>
+        <v>34.2900009155273</v>
       </c>
       <c r="G55" t="n">
-        <v>5.29650020599365</v>
+        <v>38.6450004577637</v>
       </c>
       <c r="H55" t="n">
-        <v>130.00146484375</v>
+        <v>5.20499992370605</v>
       </c>
       <c r="I55" t="n">
-        <v>216.674255371094</v>
+        <v>130.374771118164</v>
       </c>
       <c r="J55" t="n">
-        <v>218.860000610352</v>
+        <v>218.987213134766</v>
       </c>
       <c r="K55" t="n">
-        <v>104.251998901367</v>
+        <v>218.669998168945</v>
       </c>
       <c r="L55" t="n">
-        <v>4.48356485366821</v>
+        <v>104.182998657227</v>
       </c>
       <c r="M55" t="n">
-        <v>159.490005493164</v>
+        <v>4.48427772521973</v>
+      </c>
+      <c r="N55" t="n">
+        <v>156.029998779297</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44043</v>
+        <v>44071</v>
       </c>
       <c r="B56" t="n">
-        <v>62.0999984741211</v>
+        <v>66.4499969482422</v>
       </c>
       <c r="C56" t="n">
-        <v>51.1399993896484</v>
+        <v>54.5200004577637</v>
       </c>
       <c r="D56" t="n">
-        <v>6.67799997329712</v>
+        <v>7.16099977493286</v>
       </c>
       <c r="E56" t="n">
-        <v>50.2700004577637</v>
+        <v>51.7700004577637</v>
       </c>
       <c r="F56" t="n">
-        <v>37.9550018310547</v>
+        <v>34.1100006103516</v>
       </c>
       <c r="G56" t="n">
-        <v>4.99599981307983</v>
+        <v>38.9799995422363</v>
       </c>
       <c r="H56" t="n">
-        <v>129.889953613281</v>
+        <v>5.29650020599365</v>
       </c>
       <c r="I56" t="n">
-        <v>217.98779296875</v>
+        <v>130.001495361328</v>
       </c>
       <c r="J56" t="n">
-        <v>219.160003662109</v>
+        <v>216.674270629883</v>
       </c>
       <c r="K56" t="n">
-        <v>104.292999267578</v>
+        <v>218.860000610352</v>
       </c>
       <c r="L56" t="n">
-        <v>4.48311996459961</v>
+        <v>104.251998901367</v>
       </c>
       <c r="M56" t="n">
-        <v>161.990005493164</v>
+        <v>4.48356485366821</v>
+      </c>
+      <c r="N56" t="n">
+        <v>159.490005493164</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B57" t="n">
-        <v>59.2799987792969</v>
+        <v>62.0999984741211</v>
       </c>
       <c r="C57" t="n">
-        <v>47.7299995422363</v>
+        <v>51.1399993896484</v>
       </c>
       <c r="D57" t="n">
-        <v>6.70499992370605</v>
+        <v>6.67799997329712</v>
       </c>
       <c r="E57" t="n">
-        <v>48.6199989318848</v>
+        <v>50.2700004577637</v>
       </c>
       <c r="F57" t="n">
-        <v>35.9000015258789</v>
+        <v>33.810001373291</v>
       </c>
       <c r="G57" t="n">
-        <v>4.80474996566772</v>
+        <v>37.9550018310547</v>
       </c>
       <c r="H57" t="n">
-        <v>128.216842651367</v>
+        <v>4.99599981307983</v>
       </c>
       <c r="I57" t="n">
-        <v>216.131713867188</v>
+        <v>129.889938354492</v>
       </c>
       <c r="J57" t="n">
-        <v>215.339996337891</v>
+        <v>217.987777709961</v>
       </c>
       <c r="K57" t="n">
-        <v>104.369003295898</v>
+        <v>219.160003662109</v>
       </c>
       <c r="L57" t="n">
-        <v>4.48178672790527</v>
+        <v>104.292999267578</v>
       </c>
       <c r="M57" t="n">
-        <v>153.800003051758</v>
+        <v>4.48312044143677</v>
+      </c>
+      <c r="N57" t="n">
+        <v>161.990005493164</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>43980</v>
+        <v>44012</v>
       </c>
       <c r="B58" t="n">
-        <v>57.6100006103516</v>
+        <v>59.2799987792969</v>
       </c>
       <c r="C58" t="n">
-        <v>45.3400001525879</v>
+        <v>47.7299995422363</v>
       </c>
       <c r="D58" t="n">
-        <v>6.75099992752075</v>
+        <v>6.70499992370605</v>
       </c>
       <c r="E58" t="n">
-        <v>48.6599998474121</v>
+        <v>48.6199989318848</v>
       </c>
       <c r="F58" t="n">
-        <v>35.3250007629395</v>
+        <v>33.9449996948242</v>
       </c>
       <c r="G58" t="n">
-        <v>4.67325019836426</v>
+        <v>35.9000015258789</v>
       </c>
       <c r="H58" t="n">
-        <v>126.46915435791</v>
+        <v>4.80474996566772</v>
       </c>
       <c r="I58" t="n">
-        <v>213.904434204102</v>
+        <v>128.216812133789</v>
       </c>
       <c r="J58" t="n">
-        <v>210.589996337891</v>
+        <v>216.131729125977</v>
       </c>
       <c r="K58" t="n">
-        <v>104.431999206543</v>
+        <v>215.339996337891</v>
       </c>
       <c r="L58" t="n">
-        <v>4.48134183883667</v>
+        <v>104.369003295898</v>
       </c>
       <c r="M58" t="n">
-        <v>151.169998168945</v>
+        <v>4.48178720474243</v>
+      </c>
+      <c r="N58" t="n">
+        <v>153.800003051758</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43951</v>
+        <v>43980</v>
       </c>
       <c r="B59" t="n">
-        <v>55.2799987792969</v>
+        <v>57.6100006103516</v>
       </c>
       <c r="C59" t="n">
-        <v>43.375</v>
+        <v>45.3400001525879</v>
       </c>
       <c r="D59" t="n">
-        <v>6.58900022506714</v>
+        <v>6.75099992752075</v>
       </c>
       <c r="E59" t="n">
-        <v>47.5999984741211</v>
+        <v>48.6599998474121</v>
       </c>
       <c r="F59" t="n">
-        <v>35</v>
+        <v>34.6300010681152</v>
       </c>
       <c r="G59" t="n">
-        <v>4.39900016784668</v>
+        <v>35.3250007629395</v>
       </c>
       <c r="H59" t="n">
-        <v>126.051834106445</v>
+        <v>4.67325019836426</v>
       </c>
       <c r="I59" t="n">
-        <v>213.069641113281</v>
+        <v>126.46915435791</v>
       </c>
       <c r="J59" t="n">
-        <v>209.520004272461</v>
+        <v>213.904434204102</v>
       </c>
       <c r="K59" t="n">
-        <v>104.49299621582</v>
+        <v>210.589996337891</v>
       </c>
       <c r="L59" t="n">
-        <v>4.48223114013672</v>
+        <v>104.431999206543</v>
       </c>
       <c r="M59" t="n">
-        <v>150.850006103516</v>
+        <v>4.48134136199951</v>
+      </c>
+      <c r="N59" t="n">
+        <v>151.169998168945</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B60" t="n">
-        <v>50.6300010681152</v>
+        <v>55.2799987792969</v>
       </c>
       <c r="C60" t="n">
-        <v>40.2599983215332</v>
+        <v>43.375</v>
       </c>
       <c r="D60" t="n">
-        <v>5.94299983978271</v>
+        <v>6.58900022506714</v>
       </c>
       <c r="E60" t="n">
-        <v>44.9700012207031</v>
+        <v>47.5999984741211</v>
       </c>
       <c r="F60" t="n">
-        <v>33.4500007629395</v>
+        <v>34.2799987792969</v>
       </c>
       <c r="G60" t="n">
-        <v>3.90799999237061</v>
+        <v>35</v>
       </c>
       <c r="H60" t="n">
-        <v>121.368133544922</v>
+        <v>4.39900016784668</v>
       </c>
       <c r="I60" t="n">
-        <v>213.069641113281</v>
+        <v>126.05184173584</v>
       </c>
       <c r="J60" t="n">
-        <v>208.429992675781</v>
+        <v>213.069610595703</v>
       </c>
       <c r="K60" t="n">
-        <v>104.589996337891</v>
+        <v>209.520004272461</v>
       </c>
       <c r="L60" t="n">
-        <v>4.48356485366821</v>
+        <v>104.49299621582</v>
       </c>
       <c r="M60" t="n">
-        <v>142.190002441406</v>
+        <v>4.48223114013672</v>
+      </c>
+      <c r="N60" t="n">
+        <v>150.850006103516</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43889</v>
+        <v>43921</v>
       </c>
       <c r="B61" t="n">
-        <v>56.9099998474121</v>
+        <v>50.6300010681152</v>
       </c>
       <c r="C61" t="n">
-        <v>43.3300018310547</v>
+        <v>40.2599983215332</v>
       </c>
       <c r="D61" t="n">
-        <v>6.51800012588501</v>
+        <v>5.94299983978271</v>
       </c>
       <c r="E61" t="n">
-        <v>48.7999992370605</v>
+        <v>44.9700012207031</v>
       </c>
       <c r="F61" t="n">
-        <v>34.3849983215332</v>
+        <v>30.7049999237061</v>
       </c>
       <c r="G61" t="n">
-        <v>4.82625007629395</v>
+        <v>33.4500007629395</v>
       </c>
       <c r="H61" t="n">
-        <v>129.060668945312</v>
+        <v>3.90799999237061</v>
       </c>
       <c r="I61" t="n">
-        <v>216.151138305664</v>
+        <v>121.368118286133</v>
       </c>
       <c r="J61" t="n">
-        <v>220.589996337891</v>
+        <v>213.069610595703</v>
       </c>
       <c r="K61" t="n">
-        <v>104.599998474121</v>
+        <v>208.429992675781</v>
       </c>
       <c r="L61" t="n">
-        <v>4.46038722991943</v>
+        <v>104.589996337891</v>
       </c>
       <c r="M61" t="n">
-        <v>140.130004882812</v>
+        <v>4.48356485366821</v>
+      </c>
+      <c r="N61" t="n">
+        <v>142.190002441406</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43861</v>
+        <v>43889</v>
       </c>
       <c r="B62" t="n">
-        <v>62.9099998474121</v>
+        <v>56.9099998474121</v>
       </c>
       <c r="C62" t="n">
-        <v>47.5099983215332</v>
+        <v>43.3300018310547</v>
       </c>
       <c r="D62" t="n">
-        <v>7.15899991989136</v>
+        <v>6.51800012588501</v>
       </c>
       <c r="E62" t="n">
-        <v>53.5999984741211</v>
+        <v>48.7999992370605</v>
       </c>
       <c r="F62" t="n">
-        <v>38.1800003051758</v>
+        <v>31.25</v>
       </c>
       <c r="G62" t="n">
-        <v>5.36549997329712</v>
+        <v>34.3849983215332</v>
       </c>
       <c r="H62" t="n">
-        <v>130.402694702148</v>
+        <v>4.82625007629395</v>
       </c>
       <c r="I62" t="n">
-        <v>217.739440917969</v>
+        <v>129.060699462891</v>
       </c>
       <c r="J62" t="n">
-        <v>223.559997558594</v>
+        <v>216.151123046875</v>
       </c>
       <c r="K62" t="n">
-        <v>104.652000427246</v>
+        <v>220.589996337891</v>
       </c>
       <c r="L62" t="n">
-        <v>4.4506893157959</v>
+        <v>104.599998474121</v>
       </c>
       <c r="M62" t="n">
-        <v>138.929992675781</v>
+        <v>4.46038675308228</v>
+      </c>
+      <c r="N62" t="n">
+        <v>140.130004882812</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43829</v>
+        <v>43861</v>
       </c>
       <c r="B63" t="n">
-        <v>63.0499992370605</v>
+        <v>62.9099998474121</v>
       </c>
       <c r="C63" t="n">
-        <v>45.9000015258789</v>
+        <v>47.5099983215332</v>
       </c>
       <c r="D63" t="n">
-        <v>7.12200021743774</v>
+        <v>7.15899991989136</v>
       </c>
       <c r="E63" t="n">
-        <v>52.4300003051758</v>
+        <v>53.5999984741211</v>
       </c>
       <c r="F63" t="n">
-        <v>38.0950012207031</v>
+        <v>33.7299995422363</v>
       </c>
       <c r="G63" t="n">
-        <v>5.51800012588501</v>
+        <v>38.1800003051758</v>
       </c>
       <c r="H63" t="n">
-        <v>129.032928466797</v>
+        <v>5.36549997329712</v>
       </c>
       <c r="I63" t="n">
-        <v>212.394378662109</v>
+        <v>130.402648925781</v>
       </c>
       <c r="J63" t="n">
-        <v>219.190002441406</v>
+        <v>217.739440917969</v>
       </c>
       <c r="K63" t="n">
-        <v>104.707000732422</v>
+        <v>223.559997558594</v>
       </c>
       <c r="L63" t="n">
-        <v>4.44451665878296</v>
+        <v>104.652000427246</v>
       </c>
       <c r="M63" t="n">
-        <v>131.119995117188</v>
+        <v>4.45068836212158</v>
+      </c>
+      <c r="N63" t="n">
+        <v>138.929992675781</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43798</v>
+        <v>43829</v>
       </c>
       <c r="B64" t="n">
-        <v>61.4500007629395</v>
+        <v>63.0499992370605</v>
       </c>
       <c r="C64" t="n">
-        <v>44.9500007629395</v>
+        <v>45.9000015258789</v>
       </c>
       <c r="D64" t="n">
-        <v>7.02500009536743</v>
+        <v>7.12200021743774</v>
       </c>
       <c r="E64" t="n">
-        <v>51.8800010681152</v>
+        <v>52.4300003051758</v>
       </c>
       <c r="F64" t="n">
-        <v>37.3600006103516</v>
+        <v>33.8199996948242</v>
       </c>
       <c r="G64" t="n">
-        <v>5.35550022125244</v>
+        <v>38.0950012207031</v>
       </c>
       <c r="H64" t="n">
-        <v>129.11360168457</v>
+        <v>5.51800012588501</v>
       </c>
       <c r="I64" t="n">
-        <v>214.14436340332</v>
+        <v>129.032974243164</v>
       </c>
       <c r="J64" t="n">
-        <v>219.740005493164</v>
+        <v>212.394378662109</v>
       </c>
       <c r="K64" t="n">
-        <v>104.773002624512</v>
+        <v>219.190002441406</v>
       </c>
       <c r="L64" t="n">
-        <v>4.43746328353882</v>
+        <v>104.707000732422</v>
       </c>
       <c r="M64" t="n">
-        <v>128.970001220703</v>
+        <v>4.44451665878296</v>
+      </c>
+      <c r="N64" t="n">
+        <v>131.119995117188</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43769</v>
+        <v>43798</v>
       </c>
       <c r="B65" t="n">
-        <v>59.5099983215332</v>
+        <v>61.4500007629395</v>
       </c>
       <c r="C65" t="n">
-        <v>43.7400016784668</v>
+        <v>44.9500007629395</v>
       </c>
       <c r="D65" t="n">
-        <v>6.62599992752075</v>
+        <v>7.02500009536743</v>
       </c>
       <c r="E65" t="n">
-        <v>51.2799987792969</v>
+        <v>51.8800010681152</v>
       </c>
       <c r="F65" t="n">
-        <v>36.9199981689453</v>
+        <v>33.314998626709</v>
       </c>
       <c r="G65" t="n">
-        <v>5.17500019073486</v>
+        <v>37.3600006103516</v>
       </c>
       <c r="H65" t="n">
-        <v>129.501373291016</v>
+        <v>5.35550022125244</v>
       </c>
       <c r="I65" t="n">
-        <v>216.630432128906</v>
+        <v>129.113647460938</v>
       </c>
       <c r="J65" t="n">
-        <v>221.369995117188</v>
+        <v>214.14436340332</v>
       </c>
       <c r="K65" t="n">
-        <v>104.830001831055</v>
+        <v>219.740005493164</v>
       </c>
       <c r="L65" t="n">
-        <v>4.43349552154541</v>
+        <v>104.773002624512</v>
       </c>
       <c r="M65" t="n">
-        <v>131.610000610352</v>
+        <v>4.43746328353882</v>
+      </c>
+      <c r="N65" t="n">
+        <v>128.970001220703</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B66" t="n">
-        <v>58.25</v>
+        <v>59.5099983215332</v>
       </c>
       <c r="C66" t="n">
-        <v>43.2700004577637</v>
+        <v>43.7400016784668</v>
       </c>
       <c r="D66" t="n">
-        <v>6.64799976348877</v>
+        <v>6.62599992752075</v>
       </c>
       <c r="E66" t="n">
-        <v>51.0699996948242</v>
+        <v>51.2799987792969</v>
       </c>
       <c r="F66" t="n">
-        <v>37.2150001525879</v>
+        <v>31.3349990844727</v>
       </c>
       <c r="G66" t="n">
-        <v>5.04549980163574</v>
+        <v>36.9199981689453</v>
       </c>
       <c r="H66" t="n">
-        <v>129.73225402832</v>
+        <v>5.17500019073486</v>
       </c>
       <c r="I66" t="n">
-        <v>218.850173950195</v>
+        <v>129.501449584961</v>
       </c>
       <c r="J66" t="n">
-        <v>222.179992675781</v>
+        <v>216.630447387695</v>
       </c>
       <c r="K66" t="n">
-        <v>104.890998840332</v>
+        <v>221.369995117188</v>
       </c>
       <c r="L66" t="n">
-        <v>4.422034740448</v>
+        <v>104.830001831055</v>
       </c>
       <c r="M66" t="n">
-        <v>130.729995727539</v>
+        <v>4.43349599838257</v>
+      </c>
+      <c r="N66" t="n">
+        <v>131.610000610352</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43707</v>
+        <v>43738</v>
       </c>
       <c r="B67" t="n">
-        <v>56.9099998474121</v>
+        <v>58.25</v>
       </c>
       <c r="C67" t="n">
-        <v>43.4900016784668</v>
+        <v>43.2700004577637</v>
       </c>
       <c r="D67" t="n">
-        <v>6.46299982070923</v>
+        <v>6.64799976348877</v>
       </c>
       <c r="E67" t="n">
-        <v>50.4799995422363</v>
+        <v>51.0699996948242</v>
       </c>
       <c r="F67" t="n">
-        <v>36.8300018310547</v>
+        <v>30.5699996948242</v>
       </c>
       <c r="G67" t="n">
-        <v>4.92049980163574</v>
+        <v>37.2150001525879</v>
       </c>
       <c r="H67" t="n">
-        <v>130.854507446289</v>
+        <v>5.04549980163574</v>
       </c>
       <c r="I67" t="n">
-        <v>219.846160888672</v>
+        <v>129.732269287109</v>
       </c>
       <c r="J67" t="n">
-        <v>223.380004882812</v>
+        <v>218.850158691406</v>
       </c>
       <c r="K67" t="n">
-        <v>104.945999145508</v>
+        <v>222.179992675781</v>
       </c>
       <c r="L67" t="n">
-        <v>4.41604948043823</v>
+        <v>104.890998840332</v>
       </c>
       <c r="M67" t="n">
-        <v>135.070007324219</v>
+        <v>4.42203426361084</v>
+      </c>
+      <c r="N67" t="n">
+        <v>130.729995727539</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43677</v>
+        <v>43707</v>
       </c>
       <c r="B68" t="n">
-        <v>58.5900001525879</v>
+        <v>56.9099998474121</v>
       </c>
       <c r="C68" t="n">
-        <v>44.0099983215332</v>
+        <v>43.4900016784668</v>
       </c>
       <c r="D68" t="n">
-        <v>6.58300018310547</v>
+        <v>6.46299982070923</v>
       </c>
       <c r="E68" t="n">
-        <v>49.9550018310547</v>
+        <v>50.4799995422363</v>
       </c>
       <c r="F68" t="n">
-        <v>36.4449996948242</v>
+        <v>30.2700004577637</v>
       </c>
       <c r="G68" t="n">
-        <v>5.16750001907349</v>
+        <v>36.8300018310547</v>
       </c>
       <c r="H68" t="n">
-        <v>130.080703735352</v>
+        <v>4.92049980163574</v>
       </c>
       <c r="I68" t="n">
-        <v>215.444686889648</v>
+        <v>130.8544921875</v>
       </c>
       <c r="J68" t="n">
-        <v>220.440002441406</v>
+        <v>219.84619140625</v>
       </c>
       <c r="K68" t="n">
-        <v>104.999000549316</v>
+        <v>223.380004882812</v>
       </c>
       <c r="L68" t="n">
-        <v>4.4060320854187</v>
+        <v>104.945999145508</v>
       </c>
       <c r="M68" t="n">
-        <v>124.610000610352</v>
+        <v>4.41604948043823</v>
+      </c>
+      <c r="N68" t="n">
+        <v>135.070007324219</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43644</v>
+        <v>43677</v>
       </c>
       <c r="B69" t="n">
-        <v>57.8199996948242</v>
+        <v>58.5900001525879</v>
       </c>
       <c r="C69" t="n">
-        <v>43.0800018310547</v>
+        <v>44.0099983215332</v>
       </c>
       <c r="D69" t="n">
-        <v>6.26000022888184</v>
+        <v>6.58300018310547</v>
       </c>
       <c r="E69" t="n">
-        <v>49.3300018310547</v>
+        <v>49.9550018310547</v>
       </c>
       <c r="F69" t="n">
-        <v>35.6949996948242</v>
+        <v>30.2700004577637</v>
       </c>
       <c r="G69" t="n">
-        <v>5.08500003814697</v>
+        <v>36.4449996948242</v>
       </c>
       <c r="H69" t="n">
-        <v>128.210693359375</v>
+        <v>5.16750001907349</v>
       </c>
       <c r="I69" t="n">
-        <v>212.039260864258</v>
+        <v>130.080703735352</v>
       </c>
       <c r="J69" t="n">
-        <v>214.289993286133</v>
+        <v>215.444717407227</v>
       </c>
       <c r="K69" t="n">
-        <v>105.055000305176</v>
+        <v>220.440002441406</v>
       </c>
       <c r="L69" t="n">
-        <v>4.39906358718872</v>
+        <v>104.999000549316</v>
       </c>
       <c r="M69" t="n">
-        <v>120.5</v>
+        <v>4.4060320854187</v>
+      </c>
+      <c r="N69" t="n">
+        <v>124.610000610352</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43616</v>
+        <v>43644</v>
       </c>
       <c r="B70" t="n">
-        <v>54.5</v>
+        <v>57.8199996948242</v>
       </c>
       <c r="C70" t="n">
-        <v>40.689998626709</v>
+        <v>43.0800018310547</v>
       </c>
       <c r="D70" t="n">
-        <v>6.02400016784668</v>
+        <v>6.26000022888184</v>
       </c>
       <c r="E70" t="n">
-        <v>47.2000007629395</v>
+        <v>49.3300018310547</v>
       </c>
       <c r="F70" t="n">
-        <v>34.2750015258789</v>
+        <v>29.5849990844727</v>
       </c>
       <c r="G70" t="n">
-        <v>4.82025003433228</v>
+        <v>35.6949996948242</v>
       </c>
       <c r="H70" t="n">
-        <v>126.158973693848</v>
+        <v>5.08500003814697</v>
       </c>
       <c r="I70" t="n">
-        <v>207.846466064453</v>
+        <v>128.210708618164</v>
       </c>
       <c r="J70" t="n">
-        <v>209.619995117188</v>
+        <v>212.039260864258</v>
       </c>
       <c r="K70" t="n">
-        <v>105.09400177002</v>
+        <v>214.289993286133</v>
       </c>
       <c r="L70" t="n">
-        <v>4.38686800003052</v>
+        <v>105.055000305176</v>
       </c>
       <c r="M70" t="n">
-        <v>113.379997253418</v>
+        <v>4.3990626335144</v>
+      </c>
+      <c r="N70" t="n">
+        <v>120.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B71" t="n">
-        <v>57.5400009155273</v>
+        <v>54.5</v>
       </c>
       <c r="C71" t="n">
-        <v>41.939998626709</v>
+        <v>40.689998626709</v>
       </c>
       <c r="D71" t="n">
-        <v>6.3600001335144</v>
+        <v>6.02400016784668</v>
       </c>
       <c r="E71" t="n">
-        <v>47.5499992370605</v>
+        <v>47.2000007629395</v>
       </c>
       <c r="F71" t="n">
-        <v>35.2150001525879</v>
+        <v>28.5300006866455</v>
       </c>
       <c r="G71" t="n">
-        <v>5.14750003814697</v>
+        <v>34.2750015258789</v>
       </c>
       <c r="H71" t="n">
-        <v>126.471382141113</v>
+        <v>4.82025003433228</v>
       </c>
       <c r="I71" t="n">
-        <v>205.437271118164</v>
+        <v>126.158973693848</v>
       </c>
       <c r="J71" t="n">
-        <v>209.630004882812</v>
+        <v>207.846435546875</v>
       </c>
       <c r="K71" t="n">
-        <v>105.147003173828</v>
+        <v>209.619995117188</v>
       </c>
       <c r="L71" t="n">
-        <v>4.37684965133667</v>
+        <v>105.09400177002</v>
       </c>
       <c r="M71" t="n">
-        <v>111.379997253418</v>
+        <v>4.38686752319336</v>
+      </c>
+      <c r="N71" t="n">
+        <v>113.379997253418</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B72" t="n">
+        <v>57.5400009155273</v>
+      </c>
+      <c r="C72" t="n">
+        <v>41.939998626709</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.3600001335144</v>
+      </c>
+      <c r="E72" t="n">
+        <v>47.5499992370605</v>
+      </c>
+      <c r="F72" t="n">
+        <v>28.8199996948242</v>
+      </c>
+      <c r="G72" t="n">
+        <v>35.2150001525879</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5.14750003814697</v>
+      </c>
+      <c r="I72" t="n">
+        <v>126.471374511719</v>
+      </c>
+      <c r="J72" t="n">
+        <v>205.437286376953</v>
+      </c>
+      <c r="K72" t="n">
+        <v>209.630004882812</v>
+      </c>
+      <c r="L72" t="n">
+        <v>105.147003173828</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4.37685012817383</v>
+      </c>
+      <c r="N72" t="n">
+        <v>111.379997253418</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>43553</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B73" t="n">
         <v>55.5900001525879</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C73" t="n">
         <v>40.7000007629395</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D73" t="n">
         <v>6.12900018692017</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E73" t="n">
         <v>47.0800018310547</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F73" t="n">
+        <v>29.5650005340576</v>
+      </c>
+      <c r="G73" t="n">
         <v>34.6650009155273</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H73" t="n">
         <v>4.98999977111816</v>
       </c>
-      <c r="H72" t="n">
-        <v>125.77303314209</v>
-      </c>
-      <c r="I72" t="n">
-        <v>205.550674438477</v>
-      </c>
-      <c r="J72" t="n">
+      <c r="I73" t="n">
+        <v>125.773025512695</v>
+      </c>
+      <c r="J73" t="n">
+        <v>205.550659179688</v>
+      </c>
+      <c r="K73" t="n">
         <v>208.610000610352</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L73" t="n">
         <v>105.200996398926</v>
       </c>
-      <c r="L72" t="n">
-        <v>4.36857461929321</v>
-      </c>
-      <c r="M72" t="n">
+      <c r="M73" t="n">
+        <v>4.36857509613037</v>
+      </c>
+      <c r="N73" t="n">
         <v>112.220001220703</v>
       </c>
     </row>
@@ -3395,2874 +3658,3131 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45663</v>
+        <v>45701</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0190829573527083</v>
+        <v>0.00320000542534715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0203089610021598</v>
+        <v>0.0201674615639673</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0173888755784015</v>
+        <v>-0.00484976096152168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00446729995586548</v>
+        <v>0.0142132472851193</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00212310992273257</v>
+        <v>-0.0144623850155495</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0260984842039282</v>
+        <v>0.0279271508038839</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00487026435410431</v>
+        <v>-0.0115540986472924</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00519340616527864</v>
+        <v>0.00230562027621106</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00135678205703149</v>
+        <v>0.00556764978072621</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00042575593969274</v>
+        <v>-0.000478846464247895</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000199705917085291</v>
+        <v>0.000813371788065842</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0135062759728781</v>
+        <v>0.00139275158188301</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0346299101362981</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45656</v>
+        <v>45688</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0237837297817254</v>
+        <v>0.0421491725834819</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0248465847926946</v>
+        <v>0.0564415482024012</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0227490600158741</v>
+        <v>0.0409479477178918</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0521744596292555</v>
+        <v>0.0441431532441245</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0445278380435566</v>
+        <v>0.0717927910544842</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0666168692029553</v>
+        <v>0.0263270003957243</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.00659197292944536</v>
+        <v>0.0487349783601019</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0174945363587569</v>
+        <v>0.00423152718001507</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0151300042351541</v>
+        <v>-0.000582939120988613</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00310790210125722</v>
+        <v>0.00542719501204281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00451400109477862</v>
+        <v>0.0023644660222224</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.00683044755975526</v>
+        <v>0.00379469812693567</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0779301401960144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45625</v>
+        <v>45656</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0440940232977829</v>
+        <v>-0.0237837297817254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0395983606004451</v>
+        <v>-0.0248465847926946</v>
       </c>
       <c r="D4" t="n">
-        <v>0.076412470976696</v>
+        <v>-0.0227490600158741</v>
       </c>
       <c r="E4" t="n">
-        <v>0.033219603346162</v>
+        <v>-0.0521744596292555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0217638980268815</v>
+        <v>-0.0481459837516552</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0627393239430445</v>
+        <v>-0.0445278380435566</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0182868505987055</v>
+        <v>-0.0666168692029553</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0261796871299396</v>
+        <v>-0.00659197292944536</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0178125430958882</v>
+        <v>-0.0174945363587569</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00228613606731098</v>
+        <v>-0.0151300042351541</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0038264130244392</v>
+        <v>0.00310790210125722</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.00205313514764616</v>
+        <v>0.00451400109477862</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.00683044755975526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45596</v>
+        <v>45625</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0140569217331497</v>
+        <v>0.0440940232977829</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00452660148217277</v>
+        <v>0.0395983606004451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0183265343866776</v>
+        <v>0.076412470976696</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0196277769421457</v>
+        <v>0.033219603346162</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0438014630654454</v>
+        <v>0.0169792057205544</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0233487821522161</v>
+        <v>0.0217638980268815</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0045509072096187</v>
+        <v>0.0627393239430445</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0160195151050253</v>
+        <v>0.0182868505987055</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.00852584592227135</v>
+        <v>0.0261796871299396</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002739954157575</v>
+        <v>0.0178125430958882</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00353676715197149</v>
+        <v>0.00228613606731098</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0687702893310422</v>
+        <v>0.0038264130244392</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.00205313514764616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0213939340037412</v>
+        <v>-0.0140569217331497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0215799658073756</v>
+        <v>-0.00452660148217277</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00833078254594044</v>
+        <v>0.0183265343866776</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00526162847100098</v>
+        <v>-0.0196277769421457</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0123395199956648</v>
+        <v>-0.0147830835205004</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0241775787242802</v>
+        <v>-0.0438014630654454</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0125090471779823</v>
+        <v>-0.0233487821522161</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0161731973459904</v>
+        <v>-0.0045509072096187</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0141609617857119</v>
+        <v>-0.0160195151050253</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00289435641031321</v>
+        <v>-0.00852584592227135</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00426843030082247</v>
+        <v>0.002739954157575</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0436495154095737</v>
+        <v>0.00353676715197149</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0687702893310422</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45534</v>
+        <v>45565</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0182011543881724</v>
+        <v>0.0213939340037412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0165839202494169</v>
+        <v>0.0215799658073756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00487063379204766</v>
+        <v>0.00833078254594044</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0421933979997622</v>
+        <v>0.00526162847100098</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0490423471557702</v>
+        <v>-0.03491647445782</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00210946219684061</v>
+        <v>0.0123395199956648</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00193034720861918</v>
+        <v>0.0241775787242802</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00242929483768317</v>
+        <v>0.0125091100600836</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.00465448665941404</v>
+        <v>0.0161731973459904</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00312400282867187</v>
+        <v>0.0141609617857119</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00508602943994529</v>
+        <v>0.00289435641031321</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0115831903757149</v>
+        <v>0.00426843030082247</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0436495154095737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45504</v>
+        <v>45534</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0123493301117841</v>
+        <v>0.0182011543881724</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0212167187888375</v>
+        <v>0.0165839202494169</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0109890038898512</v>
+        <v>0.00487063379204766</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0458818073460603</v>
+        <v>0.0421933979997622</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0252481261349322</v>
+        <v>0.02088923239197</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0699675267784516</v>
+        <v>0.0490423471557702</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0167648337587494</v>
+        <v>-0.00210946219684061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0257854273424174</v>
+        <v>0.00193028498351411</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0181509877965156</v>
+        <v>0.00242929483768317</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00298582179353901</v>
+        <v>-0.00465448665941404</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00511212764216307</v>
+        <v>0.00312400282867187</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0297232611933334</v>
+        <v>0.00508602943994529</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0115831903757149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45471</v>
+        <v>45504</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0373118965653918</v>
+        <v>0.0123493301117841</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0544474539311022</v>
+        <v>-0.0212167187888375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0650954205666281</v>
+        <v>-0.0109890038898512</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0163536619766766</v>
+        <v>0.0458818073460603</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00344085693359375</v>
+        <v>0.022736178694714</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0108831580605774</v>
+        <v>0.0252481261349322</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0082161651857191</v>
+        <v>0.0699675267784516</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00266153595174723</v>
+        <v>0.0167647694297723</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0067054920256413</v>
+        <v>0.0257854273424174</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00280014975495613</v>
+        <v>0.0181509877965156</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00374972202654766</v>
+        <v>0.00298582179353901</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0110463005734909</v>
+        <v>0.00511212764216307</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0297232611933334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45443</v>
+        <v>45471</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0272584920141155</v>
+        <v>0.0373118965653918</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0386337403767536</v>
+        <v>0.0544474539311022</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0179533435803647</v>
+        <v>0.0650954205666281</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0137885780997298</v>
+        <v>0.0163536619766766</v>
       </c>
       <c r="F10" t="n">
-        <v>0.021753498461422</v>
+        <v>0.0412244991380342</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0312230235373689</v>
+        <v>-0.00344085693359375</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000819391390421309</v>
+        <v>-0.0108831580605774</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.00226080100615711</v>
+        <v>0.00821622897384056</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.00398068871273427</v>
+        <v>0.00266153595174723</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0033287080644151</v>
+        <v>-0.0067054920256413</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00475903209349093</v>
+        <v>0.00280014975495613</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.000578484893334896</v>
+        <v>0.00374972202654766</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0110463005734909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.030477947257215</v>
+        <v>0.0272584920141155</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.035116132387511</v>
+        <v>0.0386337403767536</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0246737039491027</v>
+        <v>0.0179533435803647</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0347013535133295</v>
+        <v>0.0137885780997298</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0153613777675949</v>
+        <v>0.0059536218636429</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0500273614323991</v>
+        <v>0.021753498461422</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0106201877363142</v>
+        <v>0.0312230235373689</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.016152050631842</v>
+        <v>0.000819327497726396</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.00545464955428809</v>
+        <v>-0.00226080100615711</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0029945558045994</v>
+        <v>-0.00398068871273427</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00438165987690797</v>
+        <v>0.0033287080644151</v>
       </c>
       <c r="M11" t="n">
-        <v>0.046674741860208</v>
+        <v>0.00475903209349093</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.000578484893334896</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45379</v>
+        <v>45412</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0363063900700351</v>
+        <v>-0.030477947257215</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0502127789436502</v>
+        <v>-0.035116132387511</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0291612009546742</v>
+        <v>-0.0246737039491027</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0246793384315296</v>
+        <v>-0.0347013535133295</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0246065305992669</v>
+        <v>-0.0312251339089268</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0440987607541854</v>
+        <v>-0.0153613777675949</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0133345980649606</v>
+        <v>-0.0500273614323991</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0113334914764978</v>
+        <v>-0.0106201245739223</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0089654444736107</v>
+        <v>-0.016152050631842</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00367761105257358</v>
+        <v>-0.00545464955428809</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00380553402985484</v>
+        <v>0.0029945558045994</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0857392976559832</v>
+        <v>0.00438165987690797</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.046674741860208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45351</v>
+        <v>45379</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0333984145552497</v>
+        <v>0.0363063900700351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0839483242253332</v>
+        <v>0.0502127789436502</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0578856346153036</v>
+        <v>0.0291612009546742</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0052227793770756</v>
+        <v>0.0246793384315296</v>
       </c>
       <c r="F13" t="n">
-        <v>0.000665456479112425</v>
+        <v>0.0255991272688791</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0211308628925002</v>
+        <v>0.0246065305992669</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.00889754144377142</v>
+        <v>0.0440987607541854</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0143695747821689</v>
+        <v>0.0133345332068517</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.00512210736899721</v>
+        <v>0.0113334914764978</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00303347190674153</v>
+        <v>0.0089654444736107</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00410875600950855</v>
+        <v>0.00367761105257358</v>
       </c>
       <c r="M13" t="n">
-        <v>0.22077309766982</v>
+        <v>0.00380553402985484</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0857392976559832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B14" t="n">
-        <v>0.013963763772127</v>
+        <v>0.0333984145552497</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0527679216679255</v>
+        <v>0.0839483242253332</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0466170812532072</v>
+        <v>0.0578856346153036</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0271584055397205</v>
+        <v>0.0052227793770756</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00951747986509521</v>
+        <v>0.0233796633988448</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0262522980817572</v>
+        <v>0.000665456479112425</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.00306426830681183</v>
+        <v>0.0211308628925002</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.00532086851075886</v>
+        <v>-0.00889741513787412</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.00723300864370424</v>
+        <v>-0.0143695747821689</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00336296234819522</v>
+        <v>-0.00512210736899721</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00392857887302034</v>
+        <v>0.00303347190674153</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.00410875600950855</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.22077309766982</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45289</v>
+        <v>45322</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0564525591484146</v>
+        <v>0.013963763772127</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0506802649813316</v>
+        <v>0.0527679216679255</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0411709031178575</v>
+        <v>0.0466170812532072</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0272085730903751</v>
+        <v>0.0271584055397205</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0303414541319622</v>
+        <v>0.0508939287357464</v>
       </c>
       <c r="G15" t="n">
-        <v>0.105151695757484</v>
+        <v>0.00951747986509521</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0275032819823764</v>
+        <v>-0.0262522980817572</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0398697242630734</v>
+        <v>-0.00306445764152685</v>
       </c>
       <c r="J15" t="n">
-        <v>0.024199701400982</v>
+        <v>-0.00532086851075886</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00324199649865231</v>
+        <v>-0.00723300864370424</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00473648285966322</v>
+        <v>0.00336296234819522</v>
       </c>
       <c r="M15" t="n">
+        <v>0.00392847826559706</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45260</v>
+        <v>45289</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0918198859083774</v>
+        <v>0.0564525591484146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0901001248439981</v>
+        <v>0.0506802649813316</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0510122993318223</v>
+        <v>0.0411709031178575</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0556262764344277</v>
+        <v>0.0272085730903751</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0408261476430778</v>
+        <v>0.0319185030393661</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0913992127881966</v>
+        <v>0.0303414541319622</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0250633282377666</v>
+        <v>0.105151695757484</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0334714637279805</v>
+        <v>0.0275034119425754</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0268313676970646</v>
+        <v>0.0398697242630734</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00338535895020686</v>
+        <v>0.024199701400982</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00535717774458178</v>
+        <v>0.00324199649865231</v>
       </c>
       <c r="M16" t="n">
+        <v>0.0047366847133854</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0352380370062493</v>
+        <v>0.0918198859083774</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0224719404061056</v>
+        <v>0.0901001248439981</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0230754230253815</v>
+        <v>0.0510122993318223</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0173276389538244</v>
+        <v>0.0556262764344277</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0206961678890235</v>
+        <v>0.0258940508176837</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0666187099793306</v>
+        <v>0.0408261476430778</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00560088287350791</v>
+        <v>0.0913992127881966</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00719337701434397</v>
+        <v>0.0250633282377666</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00161620847553312</v>
+        <v>0.0334714637279805</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00285448424911183</v>
+        <v>0.0268313676970646</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00448436831283661</v>
+        <v>0.00338535895020686</v>
       </c>
       <c r="M17" t="n">
+        <v>0.00535707651677964</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45198</v>
+        <v>45230</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0402771272625239</v>
+        <v>-0.0352380370062493</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0399303737255194</v>
+        <v>-0.0224719404061056</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0242194486769821</v>
+        <v>-0.0230754230253815</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.026434790569803</v>
+        <v>-0.0173276389538244</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0493012429644527</v>
+        <v>-0.0486079767969302</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0505839392882795</v>
+        <v>-0.0206961678890235</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0100589922521073</v>
+        <v>-0.0666187099793306</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0310676066700709</v>
+        <v>0.00560088287350791</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0343351339376202</v>
+        <v>0.00719337701434397</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00325378168827761</v>
+        <v>0.00161620847553312</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00410899658395314</v>
+        <v>0.00285448424911183</v>
       </c>
       <c r="M18" t="n">
+        <v>0.00448426617512365</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45169</v>
+        <v>45198</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0223854544206084</v>
+        <v>-0.0402771272625239</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01092758784307</v>
+        <v>-0.0399303737255194</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0155649214616029</v>
+        <v>-0.0242194486769821</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0128755364806867</v>
+        <v>-0.026434790569803</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0312973738819888</v>
+        <v>-0.00908595342001917</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0337803496693936</v>
+        <v>-0.0493012429644527</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.000667209941262459</v>
+        <v>-0.0505839392882795</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00450479603545539</v>
+        <v>-0.0100589266110793</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.00262402304053333</v>
+        <v>-0.0310676066700709</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0032166233275972</v>
+        <v>-0.0343351339376202</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00451337412842912</v>
+        <v>0.00325378168827761</v>
       </c>
       <c r="M19" t="n">
+        <v>0.00410909868350795</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0338238595046942</v>
+        <v>-0.0223854544206084</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0241452042889996</v>
+        <v>-0.01092758784307</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0286617870111028</v>
+        <v>0.0155649214616029</v>
       </c>
       <c r="E20" t="n">
-        <v>0.014808335392428</v>
+        <v>-0.0128755364806867</v>
       </c>
       <c r="F20" t="n">
-        <v>0.019430276785803</v>
+        <v>0.0154513050666356</v>
       </c>
       <c r="G20" t="n">
-        <v>0.047352309476471</v>
+        <v>-0.0312973738819888</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00866493810371782</v>
+        <v>-0.0337803496693936</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.00232835947167109</v>
+        <v>-0.000667342424589989</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0051857644483384</v>
+        <v>0.00450479603545539</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00251650941433401</v>
+        <v>-0.00262402304053333</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00453383703118826</v>
+        <v>0.0032166233275972</v>
       </c>
       <c r="M20" t="n">
+        <v>0.00451337412842912</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0632176925707315</v>
+        <v>0.0338238595046942</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0651398759317525</v>
+        <v>0.0241452042889996</v>
       </c>
       <c r="D21" t="n">
-        <v>0.040090497107655</v>
+        <v>0.0286617870111028</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0307057450410817</v>
+        <v>0.014808335392428</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0311931421607099</v>
+        <v>0.00245154029351657</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0704016572450885</v>
+        <v>0.019430276785803</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0034641327812106</v>
+        <v>0.047352309476471</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0045814666102042</v>
+        <v>0.00866500494166345</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.00418466999498412</v>
+        <v>-0.00232835947167109</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00293670306263083</v>
+        <v>0.0051857644483384</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0039578683799053</v>
+        <v>0.00251650941433401</v>
       </c>
       <c r="M21" t="n">
+        <v>0.00453373353873832</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0108587458407089</v>
+        <v>0.0632176925707315</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0493441491421033</v>
+        <v>0.0651398759317525</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0448978784896052</v>
+        <v>0.040090497107655</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0418100541953499</v>
+        <v>0.0307057450410817</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0656313760040006</v>
+        <v>0.0141258902720778</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.033888891495935</v>
+        <v>0.0311931421607099</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00141886187160911</v>
+        <v>0.0704016572450885</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0067365242374775</v>
+        <v>-0.00346419915688279</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0084852264660038</v>
+        <v>-0.0045814666102042</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00247244818538372</v>
+        <v>-0.00418466999498412</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00317656015287837</v>
+        <v>0.00293670306263083</v>
       </c>
       <c r="M22" t="n">
+        <v>0.00395807565554374</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45044</v>
+        <v>45077</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0189495808878373</v>
+        <v>-0.0108587458407089</v>
       </c>
       <c r="C23" t="n">
-        <v>0.028165134814901</v>
+        <v>-0.0493441491421033</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00280051936418979</v>
+        <v>0.0448978784896052</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0279447822917087</v>
+        <v>-0.0418100541953499</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0408547658754888</v>
+        <v>-0.011947294819031</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.000317336564103043</v>
+        <v>-0.0656313760040006</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00410609075486623</v>
+        <v>-0.033888891495935</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0011825277798504</v>
+        <v>0.0014188617769697</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00121366598183759</v>
+        <v>0.0067365242374775</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00224664415804843</v>
+        <v>0.0084852264660038</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00258764672806877</v>
+        <v>0.00247244818538372</v>
       </c>
       <c r="M23" t="n">
+        <v>0.00317645639119557</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0256978019462619</v>
+        <v>0.0189495808878373</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00664943875895929</v>
+        <v>0.028165134814901</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0114392087422606</v>
+        <v>0.00280051936418979</v>
       </c>
       <c r="E24" t="n">
-        <v>0.035531181238508</v>
+        <v>0.0279447822917087</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0463392031295367</v>
+        <v>0.0195810711795441</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0288928266703739</v>
+        <v>0.0408547658754888</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0165050964172511</v>
+        <v>-0.000317336564103043</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0296689390523148</v>
+        <v>0.0041061577296615</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0139002965874124</v>
+        <v>-0.00118261373642603</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00230978827899309</v>
+        <v>0.00121366598183759</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00551145586577939</v>
+        <v>0.00224664415804843</v>
       </c>
       <c r="M24" t="n">
+        <v>0.00258764672806877</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0170533945132727</v>
+        <v>0.0256978019462619</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.026434116248319</v>
+        <v>0.00664943875895929</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00768467375576076</v>
+        <v>0.0114392087422606</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0284697912294952</v>
+        <v>0.035531181238508</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0164084139283739</v>
+        <v>0.00377093124905237</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0110484233889724</v>
+        <v>0.0463392031295367</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0182240631906194</v>
+        <v>-0.0288928266703739</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0240925045080321</v>
+        <v>0.0165051656211472</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.00181971222793864</v>
+        <v>0.0296689364233025</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00168448185767911</v>
+        <v>0.0139002965874124</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0033597137667869</v>
+        <v>0.00230978827899309</v>
       </c>
       <c r="M25" t="n">
+        <v>0.00551156104584716</v>
+      </c>
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0655826651489186</v>
+        <v>-0.0170533945132727</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007792683994158</v>
+        <v>-0.026434116248319</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0455693661240253</v>
+        <v>0.00768467375576076</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0107914083684306</v>
+        <v>-0.0284697912294952</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00194092710866234</v>
+        <v>-0.00984380113401573</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0900331924604283</v>
+        <v>-0.0164084139283739</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0177860070893685</v>
+        <v>-0.0110484233889724</v>
       </c>
       <c r="I26" t="n">
-        <v>0.031424185112918</v>
+        <v>-0.018224195651568</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0182037516590903</v>
+        <v>-0.0240924180312984</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0014250520406196</v>
+        <v>-0.00181971222793864</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00217877412873491</v>
+        <v>0.00168448185767911</v>
       </c>
       <c r="M26" t="n">
+        <v>0.00335971411940572</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44925</v>
+        <v>44957</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.0233520141845243</v>
+        <v>0.0655826651489186</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0153461919397163</v>
+        <v>0.007792683994158</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0614091489036854</v>
+        <v>0.0455693661240253</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.00394126158914188</v>
+        <v>0.0107914083684306</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.00148204378708805</v>
+        <v>-0.0232096156675783</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0201823032879878</v>
+        <v>0.00194092710866234</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0189480948259004</v>
+        <v>0.0900331924604283</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0516248385396797</v>
+        <v>0.0177860058794161</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0500307814486262</v>
+        <v>0.031424185112918</v>
       </c>
       <c r="K27" t="n">
-        <v>0.00146602889866498</v>
+        <v>0.0182037516590903</v>
       </c>
       <c r="L27" t="n">
-        <v>0.00477605662233849</v>
+        <v>0.0014250520406196</v>
       </c>
       <c r="M27" t="n">
+        <v>0.00217856353228529</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0476723573368261</v>
+        <v>-0.0233520141845243</v>
       </c>
       <c r="C28" t="n">
-        <v>0.043575421216806</v>
+        <v>-0.0153461919397163</v>
       </c>
       <c r="D28" t="n">
-        <v>0.000538876849883518</v>
+        <v>-0.0614091489036854</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0461019313405973</v>
+        <v>-0.00394126158914188</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0589088012861296</v>
+        <v>-0.0348799641927083</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0428583649977001</v>
+        <v>-0.00148204378708805</v>
       </c>
       <c r="H28" t="n">
-        <v>0.032040451035855</v>
+        <v>-0.0201823032879878</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0216274826995608</v>
+        <v>-0.0189479626118276</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0352587011831886</v>
+        <v>-0.0516249187623093</v>
       </c>
       <c r="K28" t="n">
-        <v>0.000874514961500816</v>
+        <v>-0.0500307814486262</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00319427913597559</v>
+        <v>0.00146602889866498</v>
       </c>
       <c r="M28" t="n">
+        <v>0.00477616230835154</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0537713858804718</v>
+        <v>0.0476723573368261</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0859453980673177</v>
+        <v>0.043575421216806</v>
       </c>
       <c r="D29" t="n">
-        <v>0.052171942593503</v>
+        <v>0.000538876849883518</v>
       </c>
       <c r="E29" t="n">
-        <v>0.044635839811398</v>
+        <v>0.0461019313405973</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0486075485808939</v>
+        <v>-0.00604325378147241</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0651780600082004</v>
+        <v>0.0589088012861296</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.00119483822731081</v>
+        <v>0.0428583649977001</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00574764992918975</v>
+        <v>0.0320403110736294</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0321124723901223</v>
+        <v>0.021627480830535</v>
       </c>
       <c r="K29" t="n">
-        <v>0.000466684982000087</v>
+        <v>0.0352587011831886</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00109929358419913</v>
+        <v>0.000874514961500816</v>
       </c>
       <c r="M29" t="n">
+        <v>0.00319427913597559</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.0797180682282583</v>
+        <v>0.0537713858804718</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0683873576280001</v>
+        <v>0.0859453980673177</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0611222891596241</v>
+        <v>0.052171942593503</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0608567309383664</v>
+        <v>0.044635839811398</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0725522456331837</v>
+        <v>0.0573991358940615</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0905204162200688</v>
+        <v>0.0486075485808939</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0296019667173478</v>
+        <v>0.0651780600082004</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.0458895099491499</v>
+        <v>-0.00119470071873296</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0595596082534017</v>
+        <v>0.00574773684491392</v>
       </c>
       <c r="K30" t="n">
-        <v>0.000213955412404321</v>
+        <v>0.0321124723901223</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00108082457607228</v>
+        <v>0.000466684982000087</v>
       </c>
       <c r="M30" t="n">
+        <v>0.00109918732737624</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.032909330238762</v>
+        <v>-0.0797180682282583</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0155785676264064</v>
+        <v>-0.0683873576280001</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0214650750696798</v>
+        <v>-0.0611222891596241</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0229926140003163</v>
+        <v>-0.0608567309383664</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0221558981936965</v>
+        <v>-0.000896077869047218</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0265706107873809</v>
+        <v>-0.0725522456331837</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0539929052349312</v>
+        <v>-0.0905204162200688</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0580869730675201</v>
+        <v>-0.0296020982589545</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0455773242140349</v>
+        <v>-0.0458895099491499</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.000262479007798189</v>
+        <v>-0.0595596082534017</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00119647841519743</v>
+        <v>0.000213955412404321</v>
       </c>
       <c r="M31" t="n">
+        <v>0.00108082446122948</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44771</v>
+        <v>44804</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0742253048319212</v>
+        <v>-0.032909330238762</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0413286875260428</v>
+        <v>-0.0155785676264064</v>
       </c>
       <c r="D32" t="n">
-        <v>0.109479831826969</v>
+        <v>-0.0214650750696798</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0330302245213754</v>
+        <v>-0.0229926140003163</v>
       </c>
       <c r="F32" t="n">
-        <v>0.040989487245062</v>
+        <v>-0.0398967541639028</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0860495229266038</v>
+        <v>-0.0221558981936965</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0560278221025545</v>
+        <v>-0.0265706107873809</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0464026051801347</v>
+        <v>-0.053992722591493</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0554541557687855</v>
+        <v>-0.0580868994944863</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.000320745969414671</v>
+        <v>-0.0455773242140349</v>
       </c>
       <c r="L32" t="n">
-        <v>0.000698779435444941</v>
+        <v>-0.000262479007798189</v>
       </c>
       <c r="M32" t="n">
+        <v>0.00119669130651467</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44742</v>
+        <v>44771</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0865817968131256</v>
+        <v>0.0742253048319212</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0756872838953928</v>
+        <v>0.0413286875260428</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0662781006562894</v>
+        <v>0.109479831826969</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0414443575322559</v>
+        <v>0.0330302245213754</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0348327191391861</v>
+        <v>0.0576660577845078</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0970804856389382</v>
+        <v>0.040989487245062</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.0344163936911339</v>
+        <v>0.0860495229266038</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.0187141046912868</v>
+        <v>0.0560276182875117</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0311988038963837</v>
+        <v>0.0464025234454033</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.000747699501555843</v>
+        <v>0.0554541557687855</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.000997139392557522</v>
+        <v>-0.000320745969414671</v>
       </c>
       <c r="M33" t="n">
+        <v>0.000698459917704897</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0179405955978539</v>
+        <v>-0.0865817968131256</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0248912147290739</v>
+        <v>-0.0756872838953928</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.045637153588137</v>
+        <v>-0.0662781006562894</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0236193221101648</v>
+        <v>-0.0414443575322559</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0482985905551779</v>
+        <v>-0.00823466829518882</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0184871913653027</v>
+        <v>-0.0348327191391861</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.00937241076443229</v>
+        <v>-0.0970804856389382</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.0158564511414673</v>
+        <v>-0.0344163914748051</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0373847295615167</v>
+        <v>-0.0187141046912868</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.000766596613086534</v>
+        <v>-0.0311988038963837</v>
       </c>
       <c r="L34" t="n">
-        <v>0.000798263149682343</v>
+        <v>-0.000747699501555843</v>
       </c>
       <c r="M34" t="n">
+        <v>-0.000996820447995983</v>
+      </c>
+      <c r="N34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44680</v>
+        <v>44712</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.0751343791493413</v>
+        <v>-0.0179405955978539</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.103604243319726</v>
+        <v>-0.0248912147290739</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0230475135408605</v>
+        <v>-0.045637153588137</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0409726690033487</v>
+        <v>-0.0236193221101648</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0135736677568348</v>
+        <v>-0.023140479053676</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.0695907484364642</v>
+        <v>-0.0482985905551779</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.0312809204350136</v>
+        <v>-0.0184871913653027</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0387219626262184</v>
+        <v>-0.00937222057846543</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0100336674730898</v>
+        <v>-0.015856606504977</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.000310391912344277</v>
+        <v>-0.0373847295615167</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.000766596613086534</v>
       </c>
       <c r="M35" t="n">
+        <v>0.000798050194568578</v>
+      </c>
+      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44651</v>
+        <v>44680</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0352002386181558</v>
+        <v>-0.0751343791493413</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0556744737998596</v>
+        <v>-0.103604243319726</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0632423313412478</v>
+        <v>-0.0230475135408605</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0494669092176716</v>
+        <v>-0.0409726690033487</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0032369787630484</v>
+        <v>0.00453845117035279</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0102084992182523</v>
+        <v>0.0135736677568348</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0160516178399225</v>
+        <v>-0.0695907484364642</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.0298507429726</v>
+        <v>-0.0312811637622975</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0211639930253225</v>
+        <v>-0.038721810872388</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.000707686762115967</v>
+        <v>-0.0100336674730898</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.000398972332385839</v>
+        <v>-0.000310391912344277</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0158333551316034</v>
+        <v>0.0352002386181558</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0136474437530474</v>
+        <v>0.0556744737998596</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0285862392725269</v>
+        <v>0.0632423313412478</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.00986500011883795</v>
+        <v>0.0494669092176716</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.00033481820767467</v>
+        <v>0.0722848230016691</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0164851318962853</v>
+        <v>0.0032369787630484</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0228472062703645</v>
+        <v>0.0102084992182523</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.0189673832703504</v>
+        <v>-0.0160514962270832</v>
       </c>
       <c r="J37" t="n">
-        <v>0.000924685702741623</v>
+        <v>-0.029850600143455</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.000465042013452321</v>
+        <v>0.0211639930253225</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.000199446379399393</v>
+        <v>-0.000707686762115967</v>
       </c>
       <c r="M37" t="n">
+        <v>-0.000398865939763904</v>
+      </c>
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.0650044142469267</v>
+        <v>-0.0158333551316034</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0911104824634337</v>
+        <v>-0.0136474437530474</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0780141967135619</v>
+        <v>-0.0285862392725269</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0627737656252533</v>
+        <v>-0.00986500011883795</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.0321813798773645</v>
+        <v>-0.00248637327431922</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0874412367868235</v>
+        <v>-0.00033481820767467</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.0171298163994273</v>
+        <v>0.0164851318962853</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.0131602127355711</v>
+        <v>-0.0228469740317229</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.00501838814296607</v>
+        <v>-0.0189675277017647</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.000677772783230557</v>
+        <v>0.000924685702741623</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.000398521133582075</v>
+        <v>-0.000465042013452321</v>
       </c>
       <c r="M38" t="n">
+        <v>-0.000199233678980226</v>
+      </c>
+      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44560</v>
+        <v>44592</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0459890205648115</v>
+        <v>-0.0650044142469267</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0192654836282662</v>
+        <v>-0.0911104824634337</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0320475143011063</v>
+        <v>-0.0780141967135619</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0533060449624618</v>
+        <v>-0.0627737656252533</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0715112293001243</v>
+        <v>-0.0750191507750884</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0380647299135004</v>
+        <v>-0.0321813798773645</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.000264946070221539</v>
+        <v>-0.0874412367868235</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0148481850638594</v>
+        <v>-0.0171298204009094</v>
       </c>
       <c r="J39" t="n">
-        <v>0.00159164620625063</v>
+        <v>-0.0131602127355711</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.000619325830353623</v>
+        <v>-0.00501838814296607</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.000199327156565676</v>
+        <v>-0.000677772783230557</v>
       </c>
       <c r="M39" t="n">
+        <v>-0.000398840078207119</v>
+      </c>
+      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44530</v>
+        <v>44560</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0186242837744339</v>
+        <v>0.0459890205648115</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0290807811616949</v>
+        <v>0.0192654836282662</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0251469458102784</v>
+        <v>0.0320475143011063</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0146465105089769</v>
+        <v>0.0533060449624618</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.0145951975352097</v>
+        <v>0.068953401029102</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.0475431963476681</v>
+        <v>0.0715112293001243</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00244852886350588</v>
+        <v>0.0380647299135004</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0200606684182405</v>
+        <v>-0.000264946132095933</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0136718799349973</v>
+        <v>-0.0148482542285777</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.00065757793087895</v>
+        <v>0.00159164620625063</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-0.000619325830353623</v>
       </c>
       <c r="M40" t="n">
+        <v>-0.000199220848748904</v>
+      </c>
+      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44498</v>
+        <v>44530</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0497780227871532</v>
+        <v>-0.0186242837744339</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0680505795398618</v>
+        <v>-0.0290807811616949</v>
       </c>
       <c r="D41" t="n">
-        <v>0.066854175837769</v>
+        <v>0.0251469458102784</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0282153549454607</v>
+        <v>-0.0146465105089769</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0293427240557147</v>
+        <v>-0.000468065948465601</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0332052825809714</v>
+        <v>-0.0145951975352097</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.00715011819822697</v>
+        <v>-0.0475431963476681</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.0138783584134419</v>
+        <v>0.00244829475614727</v>
       </c>
       <c r="J41" t="n">
-        <v>0.000849893515287192</v>
+        <v>0.0200607400338155</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.000492885059631742</v>
+        <v>0.0136718799349973</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-0.00065757793087895</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44469</v>
+        <v>44498</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0374090502359642</v>
+        <v>0.0497780227871532</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0324675549115926</v>
+        <v>0.0680505795398618</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.039384776511883</v>
+        <v>0.066854175837769</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.043384649087012</v>
+        <v>0.0282153549454607</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0344515071296884</v>
+        <v>0.0306319461121094</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0225321550117307</v>
+        <v>0.0293427240557147</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.00698041649610692</v>
+        <v>0.0332052825809714</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.0130881882074021</v>
+        <v>-0.00715000281244527</v>
       </c>
       <c r="J42" t="n">
-        <v>0.00349683293909919</v>
+        <v>-0.0138784280549925</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.00054096637378076</v>
+        <v>0.000849893515287192</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.000119581992376272</v>
+        <v>-0.000492885059631742</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0254558554248689</v>
+        <v>-0.0374090502359642</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0327510665029258</v>
+        <v>-0.0324675549115926</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0356220764729405</v>
+        <v>-0.039384776511883</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0173517312787437</v>
+        <v>-0.043384649087012</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00501133025875111</v>
+        <v>-0.0279015802774166</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0218597465538526</v>
+        <v>-0.0344515071296884</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.0051473421376883</v>
+        <v>-0.0225321550117307</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.00617948696813508</v>
+        <v>-0.00698041730168542</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.00204270889550795</v>
+        <v>-0.01308818729519</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.00066610912066456</v>
+        <v>0.00349683293909919</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-0.00054096637378076</v>
       </c>
       <c r="M43" t="n">
+        <v>-0.000119581992376272</v>
+      </c>
+      <c r="N43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44407</v>
+        <v>44439</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0195558041791106</v>
+        <v>0.0254558554248689</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0172934156496158</v>
+        <v>0.0327510665029258</v>
       </c>
       <c r="D44" t="n">
-        <v>0.033018336310628</v>
+        <v>0.0356220764729405</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0293047077347801</v>
+        <v>0.0173517312787437</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0163213759934153</v>
+        <v>0.0310649049986873</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.00572321547503407</v>
+        <v>0.00501133025875111</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0119158376869677</v>
+        <v>0.0218597465538526</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0180370128761562</v>
+        <v>-0.0051474569491472</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0268309713682329</v>
+        <v>-0.0061795553787255</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.00055958955188451</v>
+        <v>-0.00204270889550795</v>
       </c>
       <c r="L44" t="n">
+        <v>-0.00066610912066456</v>
+      </c>
+      <c r="M44" t="n">
         <v>0</v>
       </c>
-      <c r="M44" t="n">
-        <v>0.0371809133892271</v>
+      <c r="N44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44377</v>
+        <v>44407</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0107369114598328</v>
+        <v>0.0195558041791106</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00952986935082212</v>
+        <v>0.0172934156496158</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0594817583103902</v>
+        <v>0.033018336310628</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00487887754442773</v>
+        <v>0.0293047077347801</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.00780981173261908</v>
+        <v>0.0391910905999457</v>
       </c>
       <c r="G45" t="n">
-        <v>0.000477162198092573</v>
+        <v>0.0163213759934153</v>
       </c>
       <c r="H45" t="n">
-        <v>0.00487707039080654</v>
+        <v>-0.00572321547503407</v>
       </c>
       <c r="I45" t="n">
-        <v>0.00468514369280659</v>
+        <v>0.0119158376869677</v>
       </c>
       <c r="J45" t="n">
-        <v>0.00364019933797155</v>
+        <v>0.0180370821202815</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.000597877567739546</v>
+        <v>0.0268309713682329</v>
       </c>
       <c r="L45" t="n">
+        <v>-0.00055958955188451</v>
+      </c>
+      <c r="M45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="n">
-        <v>-0.0414255984628182</v>
+      <c r="N45" t="n">
+        <v>0.0371809133892271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44344</v>
+        <v>44377</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0171258032025277</v>
+        <v>0.0107369114598328</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0122606822086162</v>
+        <v>0.00952986935082212</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.000588594998031433</v>
+        <v>0.0594817583103902</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0231770232398647</v>
+        <v>0.00487887754442773</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0366710549993154</v>
+        <v>0.0531816968807797</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00555215089874772</v>
+        <v>-0.00780981173261908</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.00328120616384553</v>
+        <v>0.000477162198092573</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.000353469428860387</v>
+        <v>0.00487718770634893</v>
       </c>
       <c r="J46" t="n">
-        <v>0.00595601704277327</v>
+        <v>0.00468521453921289</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.000558942394523365</v>
+        <v>0.00364019933797155</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0000995885938855912</v>
+        <v>-0.000597877567739546</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0576692932516212</v>
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.0414255984628182</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0455430407438575</v>
+        <v>0.0171258032025277</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0691813299472517</v>
+        <v>-0.0122606822086162</v>
       </c>
       <c r="D47" t="n">
-        <v>0.020788313512484</v>
+        <v>-0.000588594998031433</v>
       </c>
       <c r="E47" t="n">
-        <v>0.025974063127904</v>
+        <v>0.0231770232398647</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0238936866224522</v>
+        <v>0.0123208543123807</v>
       </c>
       <c r="G47" t="n">
-        <v>0.041922575293923</v>
+        <v>0.0366710549993154</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.000285240889537408</v>
+        <v>0.00555215089874772</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.00997330369804261</v>
+        <v>-0.0032813225269267</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.0063565689551639</v>
+        <v>-0.000353540225186411</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.000481655354061528</v>
+        <v>0.00595601704277327</v>
       </c>
       <c r="L47" t="n">
-        <v>0.000099598512761423</v>
+        <v>-0.000558942394523365</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0113086505609394</v>
+        <v>-0.0000994823199405026</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0576692932516212</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0299344889610831</v>
+        <v>0.0455430407438575</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.00185717729531842</v>
+        <v>0.0691813299472517</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0758887402998163</v>
+        <v>0.020788313512484</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0471173937485141</v>
+        <v>0.025974063127904</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0697704545230677</v>
+        <v>0.0112405453984128</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0177350977301263</v>
+        <v>0.0238936866224522</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00328286910248043</v>
+        <v>0.041922575293923</v>
       </c>
       <c r="I48" t="n">
-        <v>0.00567466833189978</v>
+        <v>-0.000285124592816266</v>
       </c>
       <c r="J48" t="n">
-        <v>0.022364671936028</v>
+        <v>-0.00997330299876398</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.000721888041994356</v>
+        <v>-0.0063565689551639</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0000798339963132833</v>
+        <v>-0.000481655354061528</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0195794947536982</v>
+        <v>0.0000994922176571489</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0113086505609394</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44253</v>
+        <v>44286</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0280258399487419</v>
+        <v>0.0299344889610831</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.00537363054448314</v>
+        <v>-0.00185717729531842</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0372804563517819</v>
+        <v>0.0758887402998163</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.0149056776514593</v>
+        <v>0.0471173937485141</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0288753648142485</v>
+        <v>0.0560640485068886</v>
       </c>
       <c r="G49" t="n">
-        <v>0.043221160173611</v>
+        <v>0.0697704545230677</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0120622945859711</v>
+        <v>0.0177350977301263</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.0189036344458418</v>
+        <v>0.00328275239069509</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.0138778372928563</v>
+        <v>0.00567480975788892</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.000567567839329541</v>
+        <v>0.022364671936028</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0000997028260543154</v>
+        <v>-0.000721888041994356</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0697518295569445</v>
+        <v>0.0000797276842476879</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.0195794947536982</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44225</v>
+        <v>44253</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00722857039692937</v>
+        <v>0.0280258399487419</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0101780910323295</v>
+        <v>-0.00537363054448314</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.00626338046399988</v>
+        <v>0.0372804563517819</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.0156017858508033</v>
+        <v>-0.0149056776514593</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.0410492762174509</v>
+        <v>-0.0244174695787599</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0255851554613706</v>
+        <v>-0.0288753648142485</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.00077562428999034</v>
+        <v>0.043221160173611</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.00399777552249281</v>
+        <v>-0.0120622945859711</v>
       </c>
       <c r="J50" t="n">
-        <v>0.00341473677286874</v>
+        <v>-0.0189037714980202</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.000500013974862434</v>
+        <v>-0.0138778372928563</v>
       </c>
       <c r="L50" t="n">
-        <v>0.000298878901095367</v>
+        <v>-0.000567567839329541</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.00342853449973735</v>
+        <v>-0.0000993839682073006</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.0697518295569445</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44195</v>
+        <v>44225</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0477278676432029</v>
+        <v>-0.00722857039692937</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0530546846193218</v>
+        <v>0.0101780910323295</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00900906157329073</v>
+        <v>-0.00626338046399988</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0255238124302455</v>
+        <v>-0.0156017858508033</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0329945713665212</v>
+        <v>0.0295934138849498</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0762470920037106</v>
+        <v>-0.0410492762174509</v>
       </c>
       <c r="H51" t="n">
-        <v>0.000104280032793502</v>
+        <v>0.0255851554613706</v>
       </c>
       <c r="I51" t="n">
-        <v>0.00159296187181379</v>
+        <v>-0.000775509164799293</v>
       </c>
       <c r="J51" t="n">
-        <v>0.00588842099746079</v>
+        <v>-0.00399777524703249</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.000605430679470165</v>
+        <v>0.00341473677286874</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>-0.000500013974862434</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0304814250809873</v>
+        <v>0.000298559895070216</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.00342853449973735</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44165</v>
+        <v>44195</v>
       </c>
       <c r="B52" t="n">
-        <v>0.124176760753953</v>
+        <v>0.0477278676432029</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0849888209668976</v>
+        <v>0.0530546846193218</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0817454251376066</v>
+        <v>0.00900906157329073</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0625379510651776</v>
+        <v>0.0255238124302455</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0722357144352586</v>
+        <v>0.000862653572410332</v>
       </c>
       <c r="G52" t="n">
-        <v>0.152614292105673</v>
+        <v>0.0329945713665212</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00915788845762555</v>
+        <v>0.0762470920037106</v>
       </c>
       <c r="I52" t="n">
-        <v>0.00081598682154338</v>
+        <v>0.000104049567693165</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0154006152588027</v>
+        <v>0.00159310000808843</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.000720161978568501</v>
+        <v>0.00588842099746079</v>
       </c>
       <c r="L52" t="n">
-        <v>0.00019907957599874</v>
+        <v>-0.000605430679470165</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0769279856993985</v>
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0304814250809873</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.0344346390362751</v>
+        <v>0.124176760753953</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0345246529457008</v>
+        <v>0.0849888209668976</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0259280370449365</v>
+        <v>0.0817454251376066</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0326938512877515</v>
+        <v>0.0625379510651776</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.0381679977059499</v>
+        <v>0.0584386550112213</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.00422667363890239</v>
+        <v>0.0722357144352586</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00650215589608116</v>
+        <v>0.152614292105673</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00882344026374859</v>
+        <v>0.00915788739273005</v>
       </c>
       <c r="J53" t="n">
-        <v>0.00960354013399289</v>
+        <v>0.000815917752064799</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.000422321480748278</v>
+        <v>0.0154006152588027</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0000996362055640798</v>
+        <v>-0.000720161978568501</v>
       </c>
       <c r="M53" t="n">
-        <v>0.002243197502108</v>
+        <v>0.000199185921926137</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.0769279856993985</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.0297967768016796</v>
+        <v>-0.0344346390362751</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.0198092777326985</v>
+        <v>-0.0345246529457008</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.014383422766661</v>
+        <v>-0.0259280370449365</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0133281557003639</v>
+        <v>-0.0326938512877515</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.00859412746040877</v>
+        <v>-0.0418489744816896</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0172756119567509</v>
+        <v>-0.0381679977059499</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00287178911746033</v>
+        <v>-0.00422667363890239</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0106747453725939</v>
+        <v>0.00650250853177003</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.00086814603342944</v>
+        <v>0.00882336997003663</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.000661860154891669</v>
+        <v>0.00960354013399289</v>
       </c>
       <c r="L54" t="n">
-        <v>0.000158996596409278</v>
+        <v>-0.000422321480748278</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0216941914521126</v>
+        <v>-0.0000996362055640798</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.002243197502108</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44071</v>
+        <v>44104</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0700482863286038</v>
+        <v>-0.0297967768016796</v>
       </c>
       <c r="C55" t="n">
-        <v>0.066093099500494</v>
+        <v>-0.0198092777326985</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0723270146102248</v>
+        <v>-0.014383422766661</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0298388698297365</v>
+        <v>-0.0133281557003639</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0270056029965198</v>
+        <v>0.00527705370726839</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0601481993908586</v>
+        <v>-0.00859412746040877</v>
       </c>
       <c r="H55" t="n">
-        <v>0.000858505429917722</v>
+        <v>-0.0172756119567509</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.0060257392387314</v>
+        <v>0.00287131894751247</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.00136887683311204</v>
+        <v>0.0106747446208495</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.00039312673428582</v>
+        <v>-0.00086814603342944</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0000992364853309446</v>
+        <v>-0.000661860154891669</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0154330508995847</v>
+        <v>0.000158996596409278</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.0216941914521126</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44043</v>
+        <v>44071</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0475708460339761</v>
+        <v>0.0700482863286038</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0714435340481114</v>
+        <v>0.066093099500494</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.00402683828727202</v>
+        <v>0.0723270146102248</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0339366837130233</v>
+        <v>0.0298388698297365</v>
       </c>
       <c r="F56" t="n">
-        <v>0.057242345900582</v>
+        <v>0.00887309153727323</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0398043287951886</v>
+        <v>0.0270056029965198</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0130490731741335</v>
+        <v>0.0601481993908586</v>
       </c>
       <c r="I56" t="n">
-        <v>0.00858772212717951</v>
+        <v>0.000858857955044146</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0177394231874359</v>
+        <v>-0.0060255996637838</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.000728224146251844</v>
+        <v>-0.00136887683311204</v>
       </c>
       <c r="L56" t="n">
-        <v>0.000297478834955456</v>
+        <v>-0.00039312673428582</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0532509901098643</v>
+        <v>0.0000991301119945831</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.0154330508995847</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0289879908219484</v>
+        <v>0.0475708460339761</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0527128227085376</v>
+        <v>0.0714435340481114</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.00681380600037873</v>
+        <v>-0.00402683828727202</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.000822049232486188</v>
+        <v>0.0339366837130233</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0162774451669001</v>
+        <v>-0.00397697224176985</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0281388245271983</v>
+        <v>0.057242345900582</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0138190873682213</v>
+        <v>0.0398043287951886</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0104124987935534</v>
+        <v>0.0130491952877232</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0225556772999731</v>
+        <v>0.0085875803219182</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.000603224214064335</v>
+        <v>0.0177394231874359</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0000992758608031608</v>
+        <v>-0.000728224146251844</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0173976643161247</v>
+        <v>0.00029747880330544</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0532509901098643</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>43980</v>
+        <v>44012</v>
       </c>
       <c r="B58" t="n">
-        <v>0.042149093388318</v>
+        <v>0.0289879908219484</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0453025971778187</v>
+        <v>0.0527128227085376</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0245863859341366</v>
+        <v>-0.00681380600037873</v>
       </c>
       <c r="E58" t="n">
-        <v>0.022268937127536</v>
+        <v>-0.000822049232486188</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00928573608398442</v>
+        <v>-0.0197805761525579</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0623437190391889</v>
+        <v>0.0162774451669001</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00331070352465024</v>
+        <v>0.0281388245271983</v>
       </c>
       <c r="I58" t="n">
-        <v>0.00391793540580698</v>
+        <v>0.013818846063705</v>
       </c>
       <c r="J58" t="n">
-        <v>0.00510687306037982</v>
+        <v>0.0104125701281619</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.000583742561571898</v>
+        <v>0.0225556772999731</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.00019840594388032</v>
+        <v>-0.000603224214064335</v>
       </c>
       <c r="M58" t="n">
-        <v>0.00212125987724598</v>
+        <v>0.0000994886813800999</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0173976643161247</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43951</v>
+        <v>43980</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0918427338155841</v>
+        <v>0.042149093388318</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0773721263868192</v>
+        <v>0.0453025971778187</v>
       </c>
       <c r="D59" t="n">
-        <v>0.108699377873118</v>
+        <v>0.0245863859341366</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0584833707366497</v>
+        <v>0.022268937127536</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0463377937730229</v>
+        <v>0.0102101021377439</v>
       </c>
       <c r="G59" t="n">
-        <v>0.125639758555432</v>
+        <v>0.00928573608398442</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0385908592702373</v>
+        <v>0.0623437190391889</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.00331064279841975</v>
       </c>
       <c r="J59" t="n">
-        <v>0.00522962929992143</v>
+        <v>0.00391807919517206</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.000927432120342964</v>
+        <v>0.00510687306037982</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.000297467210807256</v>
+        <v>-0.000583742561571898</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0609044483677956</v>
+        <v>-0.000198512327764466</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.00212125987724598</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.110349653771479</v>
+        <v>0.0918427338155841</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.0708516819706481</v>
+        <v>0.0773721263868192</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0882172867439492</v>
+        <v>0.108699377873118</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.078483567135976</v>
+        <v>0.0584833707366497</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.0271920198992192</v>
+        <v>0.116430511788756</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.190261604642845</v>
+        <v>0.0463377937730229</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.0596040254808398</v>
+        <v>0.125639758555432</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.0142562154265651</v>
+        <v>0.0385910527068143</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.0551249098507767</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0000956227187034475</v>
+        <v>0.00522962929992143</v>
       </c>
       <c r="L60" t="n">
-        <v>0.00519632546549054</v>
+        <v>-0.000927432120342964</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0147006171898481</v>
+        <v>-0.000297467210807256</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0609044483677956</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43889</v>
+        <v>43921</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.0953743445327129</v>
+        <v>-0.110349653771479</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.0879814068228244</v>
+        <v>-0.0708516819706481</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0895376171503122</v>
+        <v>-0.0882172867439492</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0895522271213881</v>
+        <v>-0.078483567135976</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.0993976415219703</v>
+        <v>-0.0174400024414062</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.100503196288677</v>
+        <v>-0.0271920198992192</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.0102913958940898</v>
+        <v>-0.190261604642845</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.00729451038180573</v>
+        <v>-0.0596043660755898</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.0132850297599628</v>
+        <v>-0.0142562870261081</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.000496903574826124</v>
+        <v>-0.0551249098507767</v>
       </c>
       <c r="L61" t="n">
-        <v>0.00217896901702752</v>
+        <v>-0.0000956227187034475</v>
       </c>
       <c r="M61" t="n">
-        <v>0.00863753163675529</v>
+        <v>0.00519643292589378</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0147006171898481</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43861</v>
+        <v>43889</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.00222045029885021</v>
+        <v>-0.0953743445327129</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0350761817458016</v>
+        <v>-0.0879814068228244</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00519512795899968</v>
+        <v>-0.0895376171503122</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0223154331896849</v>
+        <v>-0.0895522271213881</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00223123984115969</v>
+        <v>-0.0735250393090252</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0276368519588303</v>
+        <v>-0.0993976415219703</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0106156331692033</v>
+        <v>-0.100503196288677</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0251657425659209</v>
+        <v>-0.0102908144423844</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0199370184247143</v>
+        <v>-0.00729458046001019</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.000525278202900048</v>
+        <v>-0.0132850297599628</v>
       </c>
       <c r="L62" t="n">
-        <v>0.00138882526196449</v>
+        <v>-0.000496903574826124</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0595637419877391</v>
+        <v>0.00217907662177241</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.00863753163675529</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43829</v>
+        <v>43861</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0260374036494082</v>
+        <v>-0.00222045029885021</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0211346106076757</v>
+        <v>0.0350761817458016</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0138078463706042</v>
+        <v>0.00519512795899968</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0106013728939294</v>
+        <v>0.0223154331896849</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0196734635531004</v>
+        <v>-0.00266115178592574</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0303426193481822</v>
+        <v>0.00223123984115969</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.000624823540826713</v>
+        <v>-0.0276368519588303</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.00817198600700508</v>
+        <v>0.0106149198733962</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.0025029718667906</v>
+        <v>0.0251657425659209</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.000629951327503542</v>
+        <v>0.0199370184247143</v>
       </c>
       <c r="L63" t="n">
-        <v>0.00158950616454812</v>
+        <v>-0.000525278202900048</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0166704960543897</v>
+        <v>0.00138861068872975</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.0595637419877391</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43798</v>
+        <v>43829</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0325996050432467</v>
+        <v>0.0260374036494082</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0276634439423979</v>
+        <v>0.0211346106076757</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0602173516769073</v>
+        <v>0.0138078463706042</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0117005129309908</v>
+        <v>0.0106013728939294</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0119177265229755</v>
+        <v>0.0151583697713369</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0348792316647135</v>
+        <v>0.0196734635531004</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.00299434358563833</v>
+        <v>0.0303426193481822</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.0114760825667679</v>
+        <v>-0.000624823319299694</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.00736319130856267</v>
+        <v>-0.00817198600700508</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.000543729901243628</v>
+        <v>-0.0025029718667906</v>
       </c>
       <c r="L64" t="n">
-        <v>0.00089495116756666</v>
+        <v>-0.000629951327503542</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.0200592612826171</v>
+        <v>0.00158950616454812</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.0166704960543897</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43769</v>
+        <v>43798</v>
       </c>
       <c r="B65" t="n">
-        <v>0.021630872472673</v>
+        <v>0.0325996050432467</v>
       </c>
       <c r="C65" t="n">
-        <v>0.010862057215874</v>
+        <v>0.0276634439423979</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.00330924138849131</v>
+        <v>0.0602173516769073</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00411198523061551</v>
+        <v>0.0117005129309908</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.00792696446145424</v>
+        <v>0.0631881155285392</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0256665135646497</v>
+        <v>0.0119177265229755</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.00177967105431076</v>
+        <v>0.0348792316647135</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.0101427464334308</v>
+        <v>-0.00299457747589937</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.00364568181337444</v>
+        <v>-0.0114761521953826</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.000581527585319264</v>
+        <v>-0.00736319130856267</v>
       </c>
       <c r="L65" t="n">
-        <v>0.00259174379445315</v>
+        <v>-0.000543729901243628</v>
       </c>
       <c r="M65" t="n">
-        <v>0.00673146876441866</v>
+        <v>0.000894843518004063</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.0200592612826171</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0235459524895576</v>
+        <v>0.021630872472673</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.00505866204213223</v>
+        <v>0.010862057215874</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0286244697372187</v>
+        <v>-0.00330924138849131</v>
       </c>
       <c r="E66" t="n">
-        <v>0.011687800276112</v>
+        <v>0.00411198523061551</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0104533886069096</v>
+        <v>0.0250245141408345</v>
       </c>
       <c r="G66" t="n">
-        <v>0.025403923389743</v>
+        <v>-0.00792696446145424</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.00857634513224081</v>
+        <v>0.0256665135646497</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.00453038131050609</v>
+        <v>-0.00177920037487056</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.00537206634792931</v>
+        <v>-0.0101426076955278</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.000524081962376854</v>
+        <v>-0.00364568181337444</v>
       </c>
       <c r="L66" t="n">
-        <v>0.00135534260571091</v>
+        <v>-0.000581527585319264</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.0321315714913825</v>
+        <v>0.00259195973808879</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.00673146876441866</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43707</v>
+        <v>43738</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.0286738402594385</v>
+        <v>0.0235459524895576</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.0118154206520835</v>
+        <v>-0.00505866204213223</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0182288256203011</v>
+        <v>0.0286244697372187</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0105094123098455</v>
+        <v>0.011687800276112</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0105639220593861</v>
+        <v>0.00991077742067237</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.0477987840398751</v>
+        <v>0.0104533886069096</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00594864333231016</v>
+        <v>0.025403923389743</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0204297170775805</v>
+        <v>-0.00857611291466098</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0133369733662008</v>
+        <v>-0.00453058890159797</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.000504780079156109</v>
+        <v>-0.00537206634792931</v>
       </c>
       <c r="L67" t="n">
-        <v>0.00227356379284727</v>
+        <v>-0.000524081962376854</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0839419521919034</v>
+        <v>0.00135523462749187</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.0321315714913825</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43677</v>
+        <v>43707</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0133171992706289</v>
+        <v>-0.0286738402594385</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0215876613498218</v>
+        <v>-0.0118154206520835</v>
       </c>
       <c r="D68" t="n">
-        <v>0.051597434890402</v>
+        <v>-0.0182288256203011</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0126697745145135</v>
+        <v>0.0105094123098455</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0210113463065458</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0162241849179174</v>
+        <v>0.0105639220593861</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0145854478045362</v>
+        <v>-0.0477987840398751</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0160603560468489</v>
+        <v>0.00594852602983065</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0286994696344107</v>
+        <v>0.0204297141837269</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.000533051789031513</v>
+        <v>0.0133369733662008</v>
       </c>
       <c r="L68" t="n">
-        <v>0.00158408672479182</v>
+        <v>-0.000504780079156109</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0341078888825856</v>
+        <v>0.00227356379284727</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.0839419521919034</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43644</v>
+        <v>43677</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0609174255931049</v>
+        <v>0.0133171992706289</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0587368710987595</v>
+        <v>0.0215876613498218</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0391766358664489</v>
+        <v>0.051597434890402</v>
       </c>
       <c r="E69" t="n">
-        <v>0.045127140544194</v>
+        <v>0.0126697745145135</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0414295581540138</v>
+        <v>0.0231536722828742</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0549245375092604</v>
+        <v>0.0210113463065458</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0162629704844166</v>
+        <v>0.0162241849179174</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0201725575574834</v>
+        <v>0.0145853270552985</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0222784003326331</v>
+        <v>0.0160604999710352</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.000371110284001719</v>
+        <v>0.0286994696344107</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0027800214545135</v>
+        <v>-0.000533051789031513</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0627976972928299</v>
+        <v>0.0015843038585539</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0341078888825856</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43616</v>
+        <v>43644</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.0528328270274148</v>
+        <v>0.0609174255931049</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.0298044835701056</v>
+        <v>0.0587368710987595</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0528301821720337</v>
+        <v>0.0391766358664489</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.00736064100392886</v>
+        <v>0.045127140544194</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.026693131410931</v>
+        <v>0.0369785619500871</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.0635745510227335</v>
+        <v>0.0414295581540138</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.00247019082085342</v>
+        <v>0.0549245375092604</v>
       </c>
       <c r="I70" t="n">
-        <v>0.011727156095757</v>
+        <v>0.0162630914333164</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.0000477496798733101</v>
+        <v>0.0201727073468971</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.000504069561744647</v>
+        <v>0.0222784003326331</v>
       </c>
       <c r="L70" t="n">
-        <v>0.00228894056042983</v>
+        <v>-0.000371110284001719</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0179565456035116</v>
+        <v>0.0027799130601891</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.0627976972928299</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.0528328270274148</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.0298044835701056</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.0528301821720337</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.00736064100392886</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.010062422319553</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.026693131410931</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.0635745510227335</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.00247013064479773</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.011726932400681</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-0.0000477496798733101</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-0.000504069561744647</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0022887224205026</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0179565456035116</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
         <v>43585</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B72" t="n">
         <v>0.0350782651121953</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C72" t="n">
         <v>0.0304667774084821</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D72" t="n">
         <v>0.0376896621878415</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E72" t="n">
         <v>0.00998295216071643</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F72" t="n">
+        <v>-0.0251987426272896</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.0158661249829706</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H72" t="n">
         <v>0.0315631812130355</v>
       </c>
-      <c r="H71" t="n">
-        <v>0.00555245414360406</v>
-      </c>
-      <c r="I71" t="n">
-        <v>-0.000551704929318775</v>
-      </c>
-      <c r="J71" t="n">
+      <c r="I72" t="n">
+        <v>0.00555245448041597</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-0.000551556502843775</v>
+      </c>
+      <c r="K72" t="n">
         <v>0.00488952720136426</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L72" t="n">
         <v>-0.000513238723451881</v>
       </c>
-      <c r="L71" t="n">
-        <v>0.00189421785470056</v>
-      </c>
-      <c r="M71" t="n">
+      <c r="M72" t="n">
+        <v>0.00189421764794351</v>
+      </c>
+      <c r="N72" t="n">
         <v>-0.00748533200987156</v>
       </c>
     </row>
